--- a/JioMobile/July2021Mobile.xlsx
+++ b/JioMobile/July2021Mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="268">
   <si>
     <t>S.No.</t>
   </si>
@@ -429,6 +429,9 @@
     <t>amrit phone ghar (660850063)</t>
   </si>
   <si>
+    <t>GANGA COMMUNICATION (661712658)</t>
+  </si>
+  <si>
     <t>GUDDU MOBILE SHOP (661670780)</t>
   </si>
   <si>
@@ -813,7 +816,13 @@
     <t>Dues Amount</t>
   </si>
   <si>
+    <t>Kaler Zone Retailers ( Jio Phone dues) =&gt;&gt;</t>
+  </si>
+  <si>
     <t>Tabakala</t>
+  </si>
+  <si>
+    <t>ARWAL ZONE RETAILERS ( Jio phone dues) =&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -822,10 +831,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -851,6 +860,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -867,39 +927,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,7 +945,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,68 +997,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1070,7 +1079,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,19 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,19 +1109,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,19 +1145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,6 +1169,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1178,13 +1187,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,19 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,13 +1247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,50 +1276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1326,17 +1291,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1358,9 +1335,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,130 +1396,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1965,11 +1974,11 @@
   <dimension ref="A1:AX175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="K93" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L154" sqref="L154"/>
+      <selection pane="bottomRight" activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2119,26 +2128,26 @@
       <c r="A2" s="20"/>
       <c r="B2" s="30">
         <f>SUM(F3:F1000)</f>
-        <v>110500</v>
+        <v>131500</v>
       </c>
       <c r="D2" s="21">
         <f>SUM(H3:H1000)</f>
-        <v>30000</v>
+        <v>51000</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="31">
         <f>H2+I2</f>
-        <v>110500</v>
+        <v>131500</v>
       </c>
       <c r="G2" s="31">
         <f>H2/1500</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H2" s="21">
         <f>SUM(J2:AN2)</f>
-        <v>30000</v>
+        <v>51000</v>
       </c>
       <c r="I2" s="25">
         <f>SUM(I3:I1000)</f>
@@ -2162,11 +2171,11 @@
       </c>
       <c r="N2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="O2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="P2" s="25">
         <f t="shared" si="0"/>
@@ -3791,15 +3800,15 @@
       </c>
       <c r="F25" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I25" s="35">
         <v>0</v>
@@ -3808,7 +3817,10 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -5137,15 +5149,15 @@
       </c>
       <c r="F45" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I45" s="35">
         <v>0</v>
@@ -5154,7 +5166,10 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -5408,15 +5423,15 @@
       </c>
       <c r="F49" s="18">
         <f t="shared" si="4"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="G49" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H49" s="18">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="I49" s="35">
         <v>0</v>
@@ -5428,7 +5443,10 @@
         <v>4500</v>
       </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -8897,17 +8915,20 @@
       <c r="D101" s="12" t="s">
         <v>133</v>
       </c>
+      <c r="E101" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="F101" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G101" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H101" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I101" s="35">
         <v>0</v>
@@ -8917,7 +8938,10 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
+      <c r="O101" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -8962,7 +8986,7 @@
         <v>133</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F102" s="18">
         <f t="shared" si="10"/>
@@ -9026,25 +9050,25 @@
         <v>100</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F103" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G103" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I103" s="35">
         <v>0</v>
@@ -9054,7 +9078,10 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
+      <c r="O103" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -9096,13 +9123,13 @@
         <v>101</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F104" s="18">
         <f t="shared" si="10"/>
@@ -9233,7 +9260,7 @@
         <v>133</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F106" s="18">
         <f t="shared" si="10"/>
@@ -9297,25 +9324,25 @@
         <v>104</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F107" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G107" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H107" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I107" s="35">
         <v>0</v>
@@ -9324,7 +9351,10 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
+      <c r="N107" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -9370,7 +9400,7 @@
         <v>133</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F108" s="18">
         <f t="shared" si="10"/>
@@ -9437,7 +9467,7 @@
         <v>133</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F109" s="18">
         <f t="shared" si="10"/>
@@ -9504,7 +9534,7 @@
         <v>133</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F110" s="18">
         <f t="shared" si="10"/>
@@ -9568,13 +9598,13 @@
         <v>108</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F111" s="18">
         <f t="shared" si="10"/>
@@ -9637,13 +9667,13 @@
         <v>109</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F112" s="18">
         <f t="shared" si="10"/>
@@ -9707,13 +9737,13 @@
         <v>110</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F113" s="18">
         <f t="shared" si="10"/>
@@ -9780,7 +9810,7 @@
         <v>133</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F114" s="18">
         <f t="shared" si="10"/>
@@ -9844,13 +9874,13 @@
         <v>112</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F115" s="18">
         <f t="shared" si="10"/>
@@ -9913,13 +9943,13 @@
         <v>113</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F116" s="18">
         <f t="shared" si="10"/>
@@ -9973,13 +10003,13 @@
         <v>114</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F117" s="18">
         <f t="shared" si="10"/>
@@ -10002,13 +10032,13 @@
         <v>115</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F118" s="18">
         <f t="shared" si="10"/>
@@ -10031,13 +10061,13 @@
         <v>116</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F119" s="18">
         <f t="shared" si="10"/>
@@ -10063,7 +10093,7 @@
         <v>133</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F120" s="18">
         <f t="shared" si="10"/>
@@ -10081,33 +10111,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:14">
       <c r="A121" s="12">
         <v>118</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F121" s="18">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G121" s="18">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H121" s="18">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I121" s="35">
         <v>0</v>
+      </c>
+      <c r="N121" s="12">
+        <f>2*1500</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -10115,13 +10149,13 @@
         <v>119</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F122" s="18">
         <f t="shared" si="10"/>
@@ -10147,7 +10181,7 @@
         <v>133</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F123" s="18">
         <f t="shared" si="10"/>
@@ -10170,13 +10204,13 @@
         <v>121</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F124" s="18">
         <f t="shared" si="10"/>
@@ -10199,13 +10233,13 @@
         <v>122</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F125" s="18">
         <f t="shared" si="10"/>
@@ -10231,7 +10265,7 @@
         <v>133</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F126" s="18">
         <f t="shared" si="10"/>
@@ -10260,7 +10294,7 @@
         <v>133</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F127" s="18">
         <f t="shared" si="10"/>
@@ -10290,7 +10324,7 @@
         <v>133</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F128" s="18">
         <f t="shared" si="10"/>
@@ -10313,7 +10347,7 @@
         <v>126</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F129" s="18">
         <f t="shared" ref="F129:F175" si="13">H129+I129</f>
@@ -10336,13 +10370,13 @@
         <v>127</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F130" s="18">
         <f t="shared" si="13"/>
@@ -10360,30 +10394,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:14">
       <c r="A131" s="12">
         <v>128</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F131" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G131" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" s="18">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I131" s="35">
         <v>0</v>
+      </c>
+      <c r="N131" s="12">
+        <f>1*1500</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -10391,7 +10429,7 @@
         <v>129</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F132" s="18">
         <f t="shared" si="13"/>
@@ -10414,10 +10452,10 @@
         <v>130</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F133" s="18">
         <f t="shared" si="13"/>
@@ -10440,10 +10478,10 @@
         <v>131</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F134" s="18">
         <f t="shared" si="13"/>
@@ -10466,10 +10504,10 @@
         <v>132</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F135" s="18">
         <f t="shared" si="13"/>
@@ -10492,10 +10530,10 @@
         <v>133</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F136" s="18">
         <f t="shared" si="13"/>
@@ -10518,7 +10556,7 @@
         <v>134</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F137" s="18">
         <f t="shared" si="13"/>
@@ -10541,10 +10579,10 @@
         <v>135</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F138" s="18">
         <f t="shared" si="13"/>
@@ -10567,10 +10605,10 @@
         <v>136</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F139" s="18">
         <f t="shared" si="13"/>
@@ -10593,10 +10631,10 @@
         <v>137</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F140" s="18">
         <f t="shared" si="13"/>
@@ -10619,10 +10657,10 @@
         <v>138</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F141" s="18">
         <f t="shared" si="13"/>
@@ -10645,10 +10683,10 @@
         <v>139</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F142" s="18">
         <f t="shared" si="13"/>
@@ -10671,10 +10709,10 @@
         <v>140</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F143" s="18">
         <f t="shared" si="13"/>
@@ -10697,10 +10735,10 @@
         <v>141</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F144" s="18">
         <f t="shared" si="13"/>
@@ -10723,10 +10761,10 @@
         <v>142</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F145" s="18">
         <f t="shared" si="13"/>
@@ -10749,10 +10787,10 @@
         <v>143</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F146" s="18">
         <f t="shared" si="13"/>
@@ -10775,10 +10813,10 @@
         <v>144</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F147" s="18">
         <f t="shared" si="13"/>
@@ -10801,10 +10839,10 @@
         <v>145</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F148" s="18">
         <f t="shared" si="13"/>
@@ -10827,7 +10865,7 @@
         <v>146</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F149" s="18">
         <f t="shared" si="13"/>
@@ -10850,7 +10888,7 @@
         <v>147</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F150" s="18">
         <f t="shared" si="13"/>
@@ -10873,10 +10911,10 @@
         <v>148</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F151" s="18">
         <f t="shared" si="13"/>
@@ -10899,7 +10937,7 @@
         <v>149</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F152" s="18">
         <f t="shared" si="13"/>
@@ -10922,10 +10960,10 @@
         <v>150</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F153" s="18">
         <f t="shared" si="13"/>
@@ -10952,7 +10990,7 @@
         <v>151</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F154" s="18">
         <f t="shared" si="13"/>
@@ -10975,10 +11013,10 @@
         <v>152</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F155" s="18">
         <f t="shared" si="13"/>
@@ -11001,7 +11039,7 @@
         <v>153</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F156" s="18">
         <f t="shared" si="13"/>
@@ -11024,7 +11062,7 @@
         <v>154</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F157" s="18">
         <f t="shared" si="13"/>
@@ -11090,10 +11128,10 @@
         <v>157</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F160" s="18">
         <f t="shared" si="13"/>
@@ -11116,10 +11154,10 @@
         <v>158</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F161" s="18">
         <f t="shared" si="13"/>
@@ -11225,7 +11263,7 @@
         <v>78</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F166" s="18">
         <f t="shared" si="13"/>
@@ -11248,10 +11286,10 @@
         <v>164</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F167" s="18">
         <f t="shared" si="13"/>
@@ -11274,10 +11312,10 @@
         <v>165</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F168" s="18">
         <f t="shared" si="13"/>
@@ -11300,10 +11338,10 @@
         <v>166</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F169" s="18">
         <f t="shared" si="13"/>
@@ -11326,10 +11364,10 @@
         <v>167</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F170" s="18">
         <f t="shared" si="13"/>
@@ -11352,10 +11390,10 @@
         <v>168</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F171" s="18">
         <f t="shared" si="13"/>
@@ -11378,10 +11416,10 @@
         <v>169</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F172" s="18">
         <f t="shared" si="13"/>
@@ -11404,10 +11442,10 @@
         <v>170</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F173" s="18">
         <f t="shared" si="13"/>
@@ -11430,10 +11468,10 @@
         <v>171</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F174" s="18">
         <f t="shared" si="13"/>
@@ -11456,10 +11494,10 @@
         <v>172</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F175" s="18">
         <f t="shared" si="13"/>
@@ -11492,11 +11530,11 @@
   <dimension ref="A1:BA175"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="I92" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomRight" activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -11533,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>3</v>
@@ -11542,7 +11580,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I1" s="24">
         <v>44378</v>
@@ -11647,14 +11685,14 @@
       <c r="E2" s="20"/>
       <c r="F2" s="21">
         <f>SUM(H3:H1000)</f>
-        <v>27000</v>
+        <v>53000</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="21">
         <f>SUM(I2:AM2)</f>
-        <v>27000</v>
+        <v>53000</v>
       </c>
       <c r="I2" s="25">
         <f>SUM(I3:I1000)</f>
@@ -11674,11 +11712,11 @@
       </c>
       <c r="M2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="N2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="O2" s="25">
         <f t="shared" si="0"/>
@@ -11787,13 +11825,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E3" s="12">
         <v>9334066332</v>
@@ -11859,16 +11897,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>10</v>
@@ -11997,13 +12035,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C6" s="12">
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" s="12">
         <v>9102317719</v>
@@ -12073,13 +12111,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="12">
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E7" s="12">
         <v>8210924561</v>
@@ -12343,13 +12381,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C11" s="12">
         <v>9</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E11" s="12">
         <v>9973022718</v>
@@ -12547,13 +12585,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C14" s="12">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E14" s="12">
         <v>7004740439</v>
@@ -12688,13 +12726,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C16" s="12">
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E16" s="12">
         <v>7321004323</v>
@@ -12886,13 +12924,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C19" s="12">
         <v>17</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E19" s="12">
         <v>9608475282</v>
@@ -12958,13 +12996,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C20" s="12">
         <v>18</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E20" s="12">
         <v>9661555592</v>
@@ -13030,13 +13068,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" s="12">
         <v>19</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E21" s="12">
         <v>8340523512</v>
@@ -13168,13 +13206,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="12">
         <v>21</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="12">
         <v>7004478123</v>
@@ -13306,13 +13344,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="12">
         <v>23</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E25" s="12">
         <v>7006041121</v>
@@ -13325,13 +13363,15 @@
       </c>
       <c r="H25" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1">
+        <v>1500</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -13378,13 +13418,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="12">
         <v>24</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E26" s="12">
         <v>8709658240</v>
@@ -13714,13 +13754,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C31" s="12">
         <v>29</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>37</v>
@@ -13783,13 +13823,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" s="12">
         <v>30</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>37</v>
@@ -13917,13 +13957,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C34" s="12">
         <v>32</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>52</v>
@@ -14245,13 +14285,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" s="12">
         <v>37</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>52</v>
@@ -14314,16 +14354,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C40" s="12">
         <v>38</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>52</v>
@@ -14704,13 +14744,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C46" s="12">
         <v>44</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>65</v>
@@ -14838,13 +14878,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C48" s="12">
         <v>46</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>65</v>
@@ -14907,13 +14947,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C49" s="12">
         <v>47</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E49" s="12">
         <v>8863097933</v>
@@ -14926,7 +14966,7 @@
       </c>
       <c r="H49" s="18">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -14934,7 +14974,9 @@
         <v>4500</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="1">
+        <v>3000</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -14981,13 +15023,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C50" s="12">
         <v>48</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E50" s="12">
         <v>9835443096</v>
@@ -15053,13 +15095,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C51" s="12">
         <v>49</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>65</v>
@@ -15185,13 +15227,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C53" s="12">
         <v>51</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>65</v>
@@ -15317,13 +15359,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C55" s="12">
         <v>53</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>65</v>
@@ -15386,13 +15428,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C56" s="12">
         <v>54</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>65</v>
@@ -15587,13 +15629,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C59" s="12">
         <v>57</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>78</v>
@@ -15782,13 +15824,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C62" s="12">
         <v>60</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E62" s="12">
         <v>9504958065</v>
@@ -15801,14 +15843,16 @@
       </c>
       <c r="H62" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="N62" s="26">
+        <v>6000</v>
+      </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -15920,16 +15964,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C64" s="12">
         <v>62</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>83</v>
@@ -15992,13 +16036,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C65" s="12">
         <v>63</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E65" s="12">
         <v>7004399486</v>
@@ -16064,13 +16108,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C66" s="12">
         <v>64</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>88</v>
@@ -16576,13 +16620,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C74" s="12">
         <v>72</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E74" s="12">
         <v>8825370430</v>
@@ -16777,13 +16821,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C77" s="12">
         <v>75</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E77" s="12">
         <v>6200769032</v>
@@ -16849,13 +16893,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C78" s="12">
         <v>76</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>103</v>
@@ -16918,13 +16962,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C79" s="12">
         <v>77</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>103</v>
@@ -17047,16 +17091,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C81" s="12">
         <v>79</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>108</v>
@@ -17302,13 +17346,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C85" s="12">
         <v>83</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>114</v>
@@ -17439,13 +17483,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C87" s="12">
         <v>85</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E87" s="12">
         <v>7004210181</v>
@@ -17634,13 +17678,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C90" s="12">
         <v>88</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G90" s="23" t="s">
         <v>121</v>
@@ -18296,16 +18340,21 @@
       <c r="F101" s="12" t="s">
         <v>133</v>
       </c>
+      <c r="G101" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="H101" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
+      <c r="N101" s="1">
+        <v>2000</v>
+      </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -18352,7 +18401,7 @@
         <v>133</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H102" s="18">
         <f t="shared" si="4"/>
@@ -18410,18 +18459,20 @@
         <v>133</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H103" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
+      <c r="N103" s="1">
+        <v>3000</v>
+      </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -18468,7 +18519,7 @@
         <v>133</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H104" s="18">
         <f t="shared" si="4"/>
@@ -18581,7 +18632,7 @@
         <v>133</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H106" s="18">
         <f t="shared" si="4"/>
@@ -18639,17 +18690,19 @@
         <v>133</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H107" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
+      <c r="M107" s="1">
+        <v>3000</v>
+      </c>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -18697,7 +18750,7 @@
         <v>133</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H108" s="18">
         <f t="shared" si="4"/>
@@ -18755,7 +18808,7 @@
         <v>133</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H109" s="18">
         <f t="shared" si="4"/>
@@ -18813,7 +18866,7 @@
         <v>133</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H110" s="18">
         <f t="shared" si="4"/>
@@ -18871,7 +18924,7 @@
         <v>133</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H111" s="18">
         <f t="shared" si="4"/>
@@ -18929,7 +18982,7 @@
         <v>133</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H112" s="18">
         <f t="shared" si="4"/>
@@ -18987,7 +19040,7 @@
         <v>133</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H113" s="18">
         <f t="shared" si="4"/>
@@ -19002,7 +19055,7 @@
         <v>133</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H114" s="18">
         <f t="shared" si="4"/>
@@ -19017,7 +19070,7 @@
         <v>133</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H115" s="18">
         <f t="shared" si="4"/>
@@ -19032,7 +19085,7 @@
         <v>133</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H116" s="18">
         <f t="shared" si="4"/>
@@ -19047,7 +19100,7 @@
         <v>133</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H117" s="18">
         <f t="shared" si="4"/>
@@ -19062,7 +19115,7 @@
         <v>133</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H118" s="18">
         <f t="shared" si="4"/>
@@ -19077,7 +19130,7 @@
         <v>133</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H119" s="18">
         <f t="shared" si="4"/>
@@ -19092,14 +19145,14 @@
         <v>133</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H120" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:8">
+    <row r="121" spans="3:13">
       <c r="C121" s="12">
         <v>118</v>
       </c>
@@ -19107,11 +19160,14 @@
         <v>133</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="M121" s="12">
+        <v>3000</v>
       </c>
     </row>
     <row r="122" spans="3:8">
@@ -19122,7 +19178,7 @@
         <v>133</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H122" s="18">
         <f t="shared" si="4"/>
@@ -19137,7 +19193,7 @@
         <v>133</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H123" s="18">
         <f t="shared" si="4"/>
@@ -19152,7 +19208,7 @@
         <v>133</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H124" s="18">
         <f t="shared" si="4"/>
@@ -19167,7 +19223,7 @@
         <v>133</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H125" s="18">
         <f t="shared" si="4"/>
@@ -19182,14 +19238,14 @@
         <v>133</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H126" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:8">
+    <row r="127" spans="3:13">
       <c r="C127" s="12">
         <v>124</v>
       </c>
@@ -19197,11 +19253,14 @@
         <v>133</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H127" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="M127" s="12">
+        <v>3000</v>
       </c>
     </row>
     <row r="128" spans="3:8">
@@ -19212,7 +19271,7 @@
         <v>133</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H128" s="18">
         <f t="shared" si="4"/>
@@ -19224,7 +19283,7 @@
         <v>126</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H129" s="18">
         <f t="shared" ref="H129:H175" si="5">SUM(I129:AM129)</f>
@@ -19236,29 +19295,32 @@
         <v>127</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H130" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:8">
+    <row r="131" spans="3:13">
       <c r="C131" s="12">
         <v>128</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H131" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="M131" s="12">
+        <v>1500</v>
       </c>
     </row>
     <row r="132" spans="3:8">
@@ -19266,7 +19328,7 @@
         <v>129</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H132" s="18">
         <f t="shared" si="5"/>
@@ -19278,10 +19340,10 @@
         <v>130</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H133" s="18">
         <f t="shared" si="5"/>
@@ -19293,10 +19355,10 @@
         <v>131</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H134" s="18">
         <f t="shared" si="5"/>
@@ -19308,10 +19370,10 @@
         <v>132</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H135" s="18">
         <f t="shared" si="5"/>
@@ -19323,10 +19385,10 @@
         <v>133</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H136" s="18">
         <f t="shared" si="5"/>
@@ -19338,7 +19400,7 @@
         <v>134</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H137" s="18">
         <f t="shared" si="5"/>
@@ -19350,10 +19412,10 @@
         <v>135</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H138" s="18">
         <f t="shared" si="5"/>
@@ -19365,10 +19427,10 @@
         <v>136</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H139" s="18">
         <f t="shared" si="5"/>
@@ -19380,10 +19442,10 @@
         <v>137</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H140" s="18">
         <f t="shared" si="5"/>
@@ -19395,10 +19457,10 @@
         <v>138</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H141" s="18">
         <f t="shared" si="5"/>
@@ -19410,10 +19472,10 @@
         <v>139</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H142" s="18">
         <f t="shared" si="5"/>
@@ -19425,10 +19487,10 @@
         <v>140</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H143" s="18">
         <f t="shared" si="5"/>
@@ -19440,10 +19502,10 @@
         <v>141</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H144" s="18">
         <f t="shared" si="5"/>
@@ -19455,10 +19517,10 @@
         <v>142</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H145" s="18">
         <f t="shared" si="5"/>
@@ -19470,10 +19532,10 @@
         <v>143</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H146" s="18">
         <f t="shared" si="5"/>
@@ -19485,10 +19547,10 @@
         <v>144</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H147" s="18">
         <f t="shared" si="5"/>
@@ -19500,10 +19562,10 @@
         <v>145</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H148" s="18">
         <f t="shared" si="5"/>
@@ -19515,7 +19577,7 @@
         <v>146</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H149" s="18">
         <f t="shared" si="5"/>
@@ -19527,7 +19589,7 @@
         <v>147</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H150" s="18">
         <f t="shared" si="5"/>
@@ -19539,10 +19601,10 @@
         <v>148</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H151" s="18">
         <f t="shared" si="5"/>
@@ -19554,7 +19616,7 @@
         <v>149</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H152" s="18">
         <f t="shared" si="5"/>
@@ -19566,10 +19628,10 @@
         <v>150</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H153" s="18">
         <f t="shared" si="5"/>
@@ -19581,7 +19643,7 @@
         <v>151</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H154" s="18">
         <f t="shared" si="5"/>
@@ -19593,10 +19655,10 @@
         <v>152</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H155" s="18">
         <f t="shared" si="5"/>
@@ -19608,7 +19670,7 @@
         <v>153</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H156" s="18">
         <f t="shared" si="5"/>
@@ -19620,7 +19682,7 @@
         <v>154</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H157" s="18">
         <f t="shared" si="5"/>
@@ -19653,10 +19715,10 @@
         <v>157</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H160" s="18">
         <f t="shared" si="5"/>
@@ -19668,10 +19730,10 @@
         <v>158</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H161" s="18">
         <f t="shared" si="5"/>
@@ -19722,7 +19784,7 @@
         <v>78</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H166" s="18">
         <f t="shared" si="5"/>
@@ -19734,10 +19796,10 @@
         <v>164</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H167" s="18">
         <f t="shared" si="5"/>
@@ -19749,10 +19811,10 @@
         <v>165</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H168" s="18">
         <f t="shared" si="5"/>
@@ -19764,10 +19826,10 @@
         <v>166</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H169" s="18">
         <f t="shared" si="5"/>
@@ -19779,10 +19841,10 @@
         <v>167</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H170" s="18">
         <f t="shared" si="5"/>
@@ -19794,10 +19856,10 @@
         <v>168</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H171" s="18">
         <f t="shared" si="5"/>
@@ -19809,10 +19871,10 @@
         <v>169</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H172" s="18">
         <f t="shared" si="5"/>
@@ -19824,10 +19886,10 @@
         <v>170</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H173" s="18">
         <f t="shared" si="5"/>
@@ -19839,10 +19901,10 @@
         <v>171</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H174" s="18">
         <f t="shared" si="5"/>
@@ -19854,10 +19916,10 @@
         <v>172</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H175" s="18">
         <f t="shared" si="5"/>
@@ -19879,7 +19941,7 @@
   <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
@@ -19900,32 +19962,32 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="4">
         <f>ROUND(SUM(D3:D1000),0)</f>
-        <v>83500</v>
+        <v>78500</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="D2" s="7">
         <f>Orders!F2-Collection!H2</f>
-        <v>83500</v>
+        <v>78500</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(D3:D97)</f>
-        <v>79000</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:4">
@@ -20558,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:4">
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
@@ -20570,7 +20632,7 @@
       </c>
       <c r="D45" s="11">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:4">
@@ -20813,7 +20875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>83</v>
       </c>
@@ -20825,7 +20887,7 @@
       </c>
       <c r="D62" s="11">
         <f>Orders!F62-Collection!H62</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:4">
@@ -21249,7 +21311,7 @@
     </row>
     <row r="92" hidden="1" spans="1:4">
       <c r="A92" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B92" s="9">
         <v>7992363545</v>
@@ -21323,7 +21385,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="15" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -21332,7 +21394,7 @@
       </c>
       <c r="E98" s="8">
         <f>SUM(D99:D175)</f>
-        <v>4500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="99" hidden="1" spans="1:4">
@@ -21363,15 +21425,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:4">
+    <row r="101" spans="1:4">
       <c r="A101" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B101" s="14"/>
-      <c r="C101" s="9"/>
+      <c r="C101" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="D101" s="11">
         <f>Orders!F101-Collection!H101</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" hidden="1" spans="1:4">
@@ -21380,7 +21444,7 @@
       </c>
       <c r="B102" s="14"/>
       <c r="C102" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D102" s="11">
         <f>Orders!F102-Collection!H102</f>
@@ -21395,7 +21459,7 @@
         <v>9122190230</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D103" s="11">
         <f>Orders!F103-Collection!H103</f>
@@ -21410,7 +21474,7 @@
         <v>9122242352</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D104" s="11">
         <f>Orders!F104-Collection!H104</f>
@@ -21434,7 +21498,7 @@
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D106" s="11">
         <f>Orders!F106-Collection!H106</f>
@@ -21449,7 +21513,7 @@
         <v>7979719608</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D107" s="11">
         <f>Orders!F107-Collection!H107</f>
@@ -21462,7 +21526,7 @@
       </c>
       <c r="B108" s="14"/>
       <c r="C108" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D108" s="11">
         <f>Orders!F108-Collection!H108</f>
@@ -21475,7 +21539,7 @@
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D109" s="11">
         <f>Orders!F109-Collection!H109</f>
@@ -21488,7 +21552,7 @@
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D110" s="11">
         <f>Orders!F110-Collection!H110</f>
@@ -21503,7 +21567,7 @@
         <v>9006359166</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D111" s="11">
         <f>Orders!F111-Collection!H111</f>
@@ -21518,7 +21582,7 @@
         <v>8210148576</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D112" s="11">
         <f>Orders!F112-Collection!H112</f>
@@ -21533,7 +21597,7 @@
         <v>7258828840</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D113" s="11">
         <f>Orders!F113-Collection!H113</f>
@@ -21546,7 +21610,7 @@
       </c>
       <c r="B114" s="14"/>
       <c r="C114" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D114" s="11">
         <f>Orders!F114-Collection!H114</f>
@@ -21561,7 +21625,7 @@
         <v>9852620786</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D115" s="11">
         <f>Orders!F115-Collection!H115</f>
@@ -21576,7 +21640,7 @@
         <v>7004129753</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D116" s="11">
         <f>Orders!F116-Collection!H116</f>
@@ -21591,7 +21655,7 @@
         <v>7004308089</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D117" s="11">
         <f>Orders!F117-Collection!H117</f>
@@ -21606,7 +21670,7 @@
         <v>748803334</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D118" s="11">
         <f>Orders!F118-Collection!H118</f>
@@ -21621,7 +21685,7 @@
         <v>9199240992</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D119" s="11">
         <f>Orders!F119-Collection!H119</f>
@@ -21634,7 +21698,7 @@
       </c>
       <c r="B120" s="14"/>
       <c r="C120" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D120" s="11">
         <f>Orders!F120-Collection!H120</f>
@@ -21649,7 +21713,7 @@
         <v>9931256580</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D121" s="11">
         <f>Orders!F121-Collection!H121</f>
@@ -21664,7 +21728,7 @@
         <v>9931070730</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D122" s="11">
         <f>Orders!F122-Collection!H122</f>
@@ -21677,7 +21741,7 @@
       </c>
       <c r="B123" s="14"/>
       <c r="C123" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D123" s="11">
         <f>Orders!F123-Collection!H123</f>
@@ -21692,7 +21756,7 @@
         <v>9852792631</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D124" s="11">
         <f>Orders!F124-Collection!H124</f>
@@ -21707,7 +21771,7 @@
         <v>7004129804</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D125" s="11">
         <f>Orders!F125-Collection!H125</f>
@@ -21720,14 +21784,14 @@
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D126" s="11">
         <f>Orders!F126-Collection!H126</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" hidden="1" spans="1:4">
       <c r="A127" s="9" t="s">
         <v>133</v>
       </c>
@@ -21735,11 +21799,11 @@
         <v>8235940652</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D127" s="11">
         <f>Orders!F127-Collection!H127</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" hidden="1" spans="1:4">
@@ -21748,7 +21812,7 @@
       </c>
       <c r="B128" s="14"/>
       <c r="C128" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D128" s="11">
         <f>Orders!F128-Collection!H128</f>
@@ -21757,7 +21821,7 @@
     </row>
     <row r="129" hidden="1" spans="1:4">
       <c r="A129" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="9"/>
@@ -21768,13 +21832,13 @@
     </row>
     <row r="130" hidden="1" spans="1:4">
       <c r="A130" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B130" s="14">
         <v>9097671230</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D130" s="11">
         <f>Orders!F130-Collection!H130</f>
@@ -21783,13 +21847,13 @@
     </row>
     <row r="131" hidden="1" spans="1:4">
       <c r="A131" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B131" s="14">
         <v>7482908246</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D131" s="11">
         <f>Orders!F131-Collection!H131</f>
@@ -21798,7 +21862,7 @@
     </row>
     <row r="132" hidden="1" spans="1:4">
       <c r="A132" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="9"/>
@@ -21809,13 +21873,13 @@
     </row>
     <row r="133" hidden="1" spans="1:4">
       <c r="A133" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B133" s="14">
         <v>9939518710</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D133" s="11">
         <f>Orders!F133-Collection!H133</f>
@@ -21824,13 +21888,13 @@
     </row>
     <row r="134" hidden="1" spans="1:4">
       <c r="A134" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B134" s="14">
         <v>8340109140</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D134" s="11">
         <f>Orders!F134-Collection!H134</f>
@@ -21839,13 +21903,13 @@
     </row>
     <row r="135" hidden="1" spans="1:4">
       <c r="A135" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B135" s="14">
         <v>7004763796</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D135" s="11">
         <f>Orders!F135-Collection!H135</f>
@@ -21854,11 +21918,11 @@
     </row>
     <row r="136" hidden="1" spans="1:4">
       <c r="A136" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B136" s="14"/>
       <c r="C136" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D136" s="11">
         <f>Orders!F136-Collection!H136</f>
@@ -21867,7 +21931,7 @@
     </row>
     <row r="137" hidden="1" spans="1:4">
       <c r="A137" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B137" s="14">
         <v>7033228726</v>
@@ -21880,11 +21944,11 @@
     </row>
     <row r="138" hidden="1" spans="1:4">
       <c r="A138" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D138" s="11">
         <f>Orders!F138-Collection!H138</f>
@@ -21893,11 +21957,11 @@
     </row>
     <row r="139" hidden="1" spans="1:4">
       <c r="A139" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B139" s="14"/>
       <c r="C139" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D139" s="11">
         <f>Orders!F139-Collection!H139</f>
@@ -21906,13 +21970,13 @@
     </row>
     <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B140" s="14">
         <v>8825232517</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D140" s="11">
         <f>Orders!F140-Collection!H140</f>
@@ -21921,13 +21985,13 @@
     </row>
     <row r="141" hidden="1" spans="1:4">
       <c r="A141" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B141" s="14">
         <v>9939163568</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D141" s="11">
         <f>Orders!F141-Collection!H141</f>
@@ -21936,13 +22000,13 @@
     </row>
     <row r="142" hidden="1" spans="1:4">
       <c r="A142" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B142" s="14">
         <v>8804656537</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D142" s="11">
         <f>Orders!F142-Collection!H142</f>
@@ -21951,13 +22015,13 @@
     </row>
     <row r="143" hidden="1" spans="1:4">
       <c r="A143" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B143" s="14">
         <v>9798383030</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D143" s="11">
         <f>Orders!F143-Collection!H143</f>
@@ -21966,13 +22030,13 @@
     </row>
     <row r="144" hidden="1" spans="1:4">
       <c r="A144" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B144" s="14">
         <v>9801442328</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D144" s="11">
         <f>Orders!F144-Collection!H144</f>
@@ -21981,11 +22045,11 @@
     </row>
     <row r="145" hidden="1" spans="1:4">
       <c r="A145" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B145" s="14"/>
       <c r="C145" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D145" s="11">
         <f>Orders!F145-Collection!H145</f>
@@ -21994,13 +22058,13 @@
     </row>
     <row r="146" hidden="1" spans="1:4">
       <c r="A146" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B146" s="14">
         <v>6207066085</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D146" s="11">
         <f>Orders!F146-Collection!H146</f>
@@ -22009,11 +22073,11 @@
     </row>
     <row r="147" hidden="1" spans="1:4">
       <c r="A147" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B147" s="14"/>
       <c r="C147" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D147" s="11">
         <f>Orders!F147-Collection!H147</f>
@@ -22022,13 +22086,13 @@
     </row>
     <row r="148" hidden="1" spans="1:4">
       <c r="A148" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B148" s="14">
         <v>8207701228</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D148" s="11">
         <f>Orders!F148-Collection!H148</f>
@@ -22037,7 +22101,7 @@
     </row>
     <row r="149" hidden="1" spans="1:4">
       <c r="A149" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="9"/>
@@ -22048,7 +22112,7 @@
     </row>
     <row r="150" hidden="1" spans="1:4">
       <c r="A150" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B150" s="14"/>
       <c r="C150" s="9"/>
@@ -22059,13 +22123,13 @@
     </row>
     <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B151" s="14">
         <v>9507432307</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D151" s="11">
         <f>Orders!F151-Collection!H151</f>
@@ -22074,7 +22138,7 @@
     </row>
     <row r="152" hidden="1" spans="1:4">
       <c r="A152" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="9"/>
@@ -22085,13 +22149,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B153" s="14">
         <v>9113391144</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D153" s="11">
         <f>Orders!F153-Collection!H153</f>
@@ -22100,7 +22164,7 @@
     </row>
     <row r="154" hidden="1" spans="1:4">
       <c r="A154" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="9"/>
@@ -22111,11 +22175,11 @@
     </row>
     <row r="155" hidden="1" spans="1:4">
       <c r="A155" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B155" s="14"/>
       <c r="C155" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D155" s="11">
         <f>Orders!F155-Collection!H155</f>
@@ -22124,7 +22188,7 @@
     </row>
     <row r="156" hidden="1" spans="1:4">
       <c r="A156" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="9"/>
@@ -22135,7 +22199,7 @@
     </row>
     <row r="157" hidden="1" spans="1:4">
       <c r="A157" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B157" s="14"/>
       <c r="C157" s="9"/>
@@ -22166,13 +22230,13 @@
     </row>
     <row r="160" hidden="1" spans="1:4">
       <c r="A160" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B160" s="14">
         <v>9110027071</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D160" s="11">
         <f>Orders!F160-Collection!H160</f>
@@ -22181,13 +22245,13 @@
     </row>
     <row r="161" hidden="1" spans="1:4">
       <c r="A161" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B161" s="14">
         <v>8210849560</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D161" s="11">
         <f>Orders!F161-Collection!H161</f>
@@ -22236,7 +22300,7 @@
       </c>
       <c r="B166" s="14"/>
       <c r="C166" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D166" s="11">
         <f>Orders!F166-Collection!H166</f>
@@ -22245,13 +22309,13 @@
     </row>
     <row r="167" hidden="1" spans="1:4">
       <c r="A167" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B167" s="14">
         <v>7903210589</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D167" s="11">
         <f>Orders!F167-Collection!H167</f>
@@ -22260,13 +22324,13 @@
     </row>
     <row r="168" hidden="1" spans="1:4">
       <c r="A168" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B168" s="14">
         <v>6203201991</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D168" s="11">
         <f>Orders!F168-Collection!H168</f>
@@ -22275,13 +22339,13 @@
     </row>
     <row r="169" hidden="1" spans="1:4">
       <c r="A169" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B169" s="14">
         <v>7903748069</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D169" s="11">
         <f>Orders!F169-Collection!H169</f>
@@ -22290,13 +22354,13 @@
     </row>
     <row r="170" hidden="1" spans="1:4">
       <c r="A170" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B170" s="14">
         <v>8709003781</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D170" s="11">
         <f>Orders!F170-Collection!H170</f>
@@ -22305,13 +22369,13 @@
     </row>
     <row r="171" hidden="1" spans="1:4">
       <c r="A171" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B171" s="14">
         <v>8789050082</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D171" s="11">
         <f>Orders!F171-Collection!H171</f>
@@ -22320,13 +22384,13 @@
     </row>
     <row r="172" hidden="1" spans="1:4">
       <c r="A172" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B172" s="14">
         <v>8002924498</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D172" s="11">
         <f>Orders!F172-Collection!H172</f>
@@ -22335,13 +22399,13 @@
     </row>
     <row r="173" hidden="1" spans="1:4">
       <c r="A173" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B173" s="14">
         <v>7050470759</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D173" s="11">
         <f>Orders!F173-Collection!H173</f>
@@ -22350,11 +22414,11 @@
     </row>
     <row r="174" hidden="1" spans="1:4">
       <c r="A174" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B174" s="14"/>
       <c r="C174" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D174" s="11">
         <f>Orders!F174-Collection!H174</f>
@@ -22363,13 +22427,13 @@
     </row>
     <row r="175" hidden="1" spans="1:4">
       <c r="A175" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B175" s="14">
         <v>9852299198</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D175" s="11">
         <f>Orders!F175-Collection!H175</f>
@@ -22380,6 +22444,7 @@
   <autoFilter ref="A1:D175">
     <filterColumn colId="3">
       <filters>
+        <filter val="1000"/>
         <filter val="1500"/>
         <filter val="2000"/>
         <filter val="2500"/>
@@ -22389,7 +22454,7 @@
         <filter val="6000"/>
         <filter val="11000"/>
         <filter val="15000"/>
-        <filter val="83500"/>
+        <filter val="78500"/>
         <filter val="0.1"/>
       </filters>
     </filterColumn>

--- a/JioMobile/July2021Mobile.xlsx
+++ b/JioMobile/July2021Mobile.xlsx
@@ -12,14 +12,47 @@
     <sheet name="AmtToCollect" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AmtToCollect!$A$1:$D$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AmtToCollect!$A$1:$D$177</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vijay</author>
+  </authors>
+  <commentList>
+    <comment ref="Q32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3000-Cash
+1000-Digital</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="269">
   <si>
     <t>S.No.</t>
   </si>
@@ -673,6 +706,9 @@
   </si>
   <si>
     <t>SOHSA PIYUSH PHONEX (661498932)</t>
+  </si>
+  <si>
+    <t>Jio office Arwal</t>
   </si>
   <si>
     <t>Contact</t>
@@ -830,13 +866,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,9 +897,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -874,16 +925,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,7 +934,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,14 +956,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -920,7 +979,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -935,9 +994,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,28 +1032,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -981,27 +1040,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -1079,7 +1126,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,163 +1288,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,8 +1341,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,8 +1359,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1345,21 +1407,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1378,13 +1425,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1396,134 +1443,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1603,7 +1650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1613,6 +1660,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1636,13 +1687,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1971,14 +2022,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX175"/>
+  <dimension ref="A1:AX177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="K93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="P84" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O103" sqref="O103"/>
+      <selection pane="bottomRight" activeCell="S180" sqref="S180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1990,164 +2041,164 @@
     <col min="6" max="6" width="21.8571428571429" style="12" customWidth="1"/>
     <col min="7" max="7" width="4.71428571428571" style="12" customWidth="1"/>
     <col min="8" max="8" width="11" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20" style="28" customWidth="1"/>
+    <col min="9" max="9" width="20" style="29" customWidth="1"/>
     <col min="10" max="39" width="9.14285714285714" style="12"/>
     <col min="40" max="40" width="9.14285714285714" style="1"/>
     <col min="41" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="18" customFormat="1" spans="1:46">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="35">
         <v>44378</v>
       </c>
-      <c r="K1" s="34">
+      <c r="K1" s="35">
         <v>44379</v>
       </c>
-      <c r="L1" s="34">
+      <c r="L1" s="35">
         <v>44380</v>
       </c>
-      <c r="M1" s="34">
+      <c r="M1" s="35">
         <v>44381</v>
       </c>
-      <c r="N1" s="34">
+      <c r="N1" s="35">
         <v>44382</v>
       </c>
-      <c r="O1" s="34">
+      <c r="O1" s="35">
         <v>44383</v>
       </c>
-      <c r="P1" s="34">
+      <c r="P1" s="35">
         <v>44384</v>
       </c>
-      <c r="Q1" s="34">
+      <c r="Q1" s="35">
         <v>44385</v>
       </c>
-      <c r="R1" s="34">
+      <c r="R1" s="35">
         <v>44386</v>
       </c>
-      <c r="S1" s="34">
+      <c r="S1" s="35">
         <v>44387</v>
       </c>
-      <c r="T1" s="34">
+      <c r="T1" s="35">
         <v>44388</v>
       </c>
-      <c r="U1" s="34">
+      <c r="U1" s="35">
         <v>44389</v>
       </c>
-      <c r="V1" s="34">
+      <c r="V1" s="35">
         <v>44390</v>
       </c>
-      <c r="W1" s="34">
+      <c r="W1" s="35">
         <v>44391</v>
       </c>
-      <c r="X1" s="34">
+      <c r="X1" s="35">
         <v>44392</v>
       </c>
-      <c r="Y1" s="34">
+      <c r="Y1" s="35">
         <v>44393</v>
       </c>
-      <c r="Z1" s="34">
+      <c r="Z1" s="35">
         <v>44394</v>
       </c>
-      <c r="AA1" s="34">
+      <c r="AA1" s="35">
         <v>44395</v>
       </c>
-      <c r="AB1" s="34">
+      <c r="AB1" s="35">
         <v>44396</v>
       </c>
-      <c r="AC1" s="34">
+      <c r="AC1" s="35">
         <v>44397</v>
       </c>
-      <c r="AD1" s="34">
+      <c r="AD1" s="35">
         <v>44398</v>
       </c>
-      <c r="AE1" s="34">
+      <c r="AE1" s="35">
         <v>44399</v>
       </c>
-      <c r="AF1" s="34">
+      <c r="AF1" s="35">
         <v>44400</v>
       </c>
-      <c r="AG1" s="34">
+      <c r="AG1" s="35">
         <v>44401</v>
       </c>
-      <c r="AH1" s="34">
+      <c r="AH1" s="35">
         <v>44402</v>
       </c>
-      <c r="AI1" s="34">
+      <c r="AI1" s="35">
         <v>44403</v>
       </c>
-      <c r="AJ1" s="34">
+      <c r="AJ1" s="35">
         <v>44404</v>
       </c>
-      <c r="AK1" s="34">
+      <c r="AK1" s="35">
         <v>44405</v>
       </c>
-      <c r="AL1" s="34">
+      <c r="AL1" s="35">
         <v>44406</v>
       </c>
-      <c r="AM1" s="34">
+      <c r="AM1" s="35">
         <v>44407</v>
       </c>
-      <c r="AN1" s="34">
+      <c r="AN1" s="35">
         <v>44408</v>
       </c>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
     </row>
     <row r="2" s="18" customFormat="1" spans="1:40">
       <c r="A2" s="20"/>
-      <c r="B2" s="30">
+      <c r="B2" s="31">
         <f>SUM(F3:F1000)</f>
-        <v>131500</v>
+        <v>212500</v>
       </c>
       <c r="D2" s="21">
         <f>SUM(H3:H1000)</f>
-        <v>51000</v>
+        <v>132000</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="32">
         <f>H2+I2</f>
-        <v>131500</v>
-      </c>
-      <c r="G2" s="31">
+        <v>212500</v>
+      </c>
+      <c r="G2" s="32">
         <f>H2/1500</f>
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="H2" s="21">
         <f>SUM(J2:AN2)</f>
-        <v>51000</v>
+        <v>132000</v>
       </c>
       <c r="I2" s="25">
         <f>SUM(I3:I1000)</f>
@@ -2183,15 +2234,15 @@
       </c>
       <c r="Q2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43500</v>
       </c>
       <c r="R2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="S2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28500</v>
       </c>
       <c r="T2" s="25">
         <f t="shared" si="0"/>
@@ -2300,7 +2351,7 @@
         <f>SUM(J3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="36">
         <v>0</v>
       </c>
       <c r="J3" s="1"/>
@@ -2367,7 +2418,7 @@
         <f t="shared" ref="H4:H35" si="3">SUM(J4:AN4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="36">
         <v>0</v>
       </c>
       <c r="J4" s="1"/>
@@ -2437,7 +2488,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="36">
         <v>4500</v>
       </c>
       <c r="J5" s="1"/>
@@ -2507,7 +2558,7 @@
         <f t="shared" si="3"/>
         <v>4500</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="36">
         <v>3000</v>
       </c>
       <c r="J6" s="1">
@@ -2573,17 +2624,17 @@
       </c>
       <c r="F7" s="18">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="36">
         <v>3000</v>
       </c>
       <c r="J7" s="1"/>
@@ -2595,7 +2646,10 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -2653,7 +2707,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="36">
         <v>0</v>
       </c>
       <c r="J8" s="1"/>
@@ -2720,7 +2774,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="36">
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
@@ -2780,17 +2834,17 @@
       </c>
       <c r="F10" s="18">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
+        <v>15000</v>
+      </c>
+      <c r="I10" s="36">
         <v>15000</v>
       </c>
       <c r="J10" s="1"/>
@@ -2802,7 +2856,10 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -2857,7 +2914,7 @@
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="36">
         <v>0</v>
       </c>
       <c r="J11" s="1">
@@ -2927,7 +2984,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="36">
         <v>0</v>
       </c>
       <c r="J12" s="1"/>
@@ -2994,7 +3051,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="36">
         <v>0</v>
       </c>
       <c r="J13" s="1"/>
@@ -3061,7 +3118,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="36">
         <v>0</v>
       </c>
       <c r="J14" s="1"/>
@@ -3131,7 +3188,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="36">
         <v>0</v>
       </c>
       <c r="J15" s="1"/>
@@ -3198,7 +3255,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="36">
         <v>0</v>
       </c>
       <c r="J16" s="1"/>
@@ -3268,7 +3325,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="36">
         <v>0</v>
       </c>
       <c r="J17" s="1"/>
@@ -3317,7 +3374,7 @@
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="12">
@@ -3326,7 +3383,7 @@
       <c r="D18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="34" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="18">
@@ -3341,7 +3398,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="36">
         <v>1500</v>
       </c>
       <c r="J18" s="1"/>
@@ -3408,7 +3465,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="36">
         <v>2000</v>
       </c>
       <c r="J19" s="1"/>
@@ -3475,7 +3532,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="36">
         <v>0</v>
       </c>
       <c r="J20" s="1"/>
@@ -3542,7 +3599,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="36">
         <v>3000</v>
       </c>
       <c r="J21" s="1"/>
@@ -3609,7 +3666,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="36">
         <v>0</v>
       </c>
       <c r="J22" s="1"/>
@@ -3676,7 +3733,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="36">
         <v>0</v>
       </c>
       <c r="J23" s="1"/>
@@ -3743,7 +3800,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="36">
         <v>0</v>
       </c>
       <c r="J24" s="1"/>
@@ -3800,17 +3857,17 @@
       </c>
       <c r="F25" s="18">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="18">
         <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="I25" s="35">
+        <v>4500</v>
+      </c>
+      <c r="I25" s="36">
         <v>0</v>
       </c>
       <c r="J25" s="1"/>
@@ -3824,7 +3881,10 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="R25" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -3880,7 +3940,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="36">
         <v>0</v>
       </c>
       <c r="J26" s="1"/>
@@ -3947,7 +4007,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="36">
         <v>3000</v>
       </c>
       <c r="J27" s="1"/>
@@ -4014,7 +4074,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="36">
         <v>0</v>
       </c>
       <c r="J28" s="1"/>
@@ -4081,7 +4141,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="36">
         <v>0</v>
       </c>
       <c r="J29" s="1"/>
@@ -4148,7 +4208,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="36">
         <v>0</v>
       </c>
       <c r="J30" s="1"/>
@@ -4215,7 +4275,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="36">
         <v>0</v>
       </c>
       <c r="J31" s="1"/>
@@ -4272,17 +4332,17 @@
       </c>
       <c r="F32" s="18">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G32" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="35">
+        <v>3000</v>
+      </c>
+      <c r="I32" s="36">
         <v>12000</v>
       </c>
       <c r="J32" s="1"/>
@@ -4293,7 +4353,10 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="R32" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -4349,7 +4412,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="36">
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
@@ -4416,7 +4479,7 @@
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="36">
         <v>1500</v>
       </c>
       <c r="J34" s="1">
@@ -4486,7 +4549,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="36">
         <v>0</v>
       </c>
       <c r="J35" s="1"/>
@@ -4553,7 +4616,7 @@
         <f t="shared" ref="H36:H67" si="6">SUM(J36:AN36)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="36">
         <v>2500</v>
       </c>
       <c r="J36" s="1"/>
@@ -4610,17 +4673,17 @@
       </c>
       <c r="F37" s="18">
         <f t="shared" si="4"/>
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="35">
+        <v>3000</v>
+      </c>
+      <c r="I37" s="36">
         <v>3500</v>
       </c>
       <c r="J37" s="1"/>
@@ -4631,7 +4694,10 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="R37" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -4687,7 +4753,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="36">
         <v>0</v>
       </c>
       <c r="J38" s="1"/>
@@ -4754,7 +4820,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="36">
         <v>3500</v>
       </c>
       <c r="J39" s="1"/>
@@ -4824,7 +4890,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="36">
         <v>0</v>
       </c>
       <c r="J40" s="1"/>
@@ -4891,7 +4957,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="36">
         <v>3000</v>
       </c>
       <c r="J41" s="1"/>
@@ -4948,17 +5014,17 @@
       </c>
       <c r="F42" s="18">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="35">
+        <v>1500</v>
+      </c>
+      <c r="I42" s="36">
         <v>1500</v>
       </c>
       <c r="J42" s="1"/>
@@ -4968,7 +5034,10 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="Q42" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -5025,7 +5094,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="36">
         <v>4500</v>
       </c>
       <c r="J43" s="1"/>
@@ -5092,7 +5161,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="36">
         <v>0</v>
       </c>
       <c r="J44" s="1"/>
@@ -5159,7 +5228,7 @@
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="36">
         <v>0</v>
       </c>
       <c r="J45" s="1"/>
@@ -5219,17 +5288,17 @@
       </c>
       <c r="F46" s="18">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="G46" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H46" s="18">
         <f t="shared" si="6"/>
-        <v>1500</v>
-      </c>
-      <c r="I46" s="35">
+        <v>9000</v>
+      </c>
+      <c r="I46" s="36">
         <v>0</v>
       </c>
       <c r="J46" s="1"/>
@@ -5242,7 +5311,10 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="Q46" s="1">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -5299,7 +5371,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="36">
         <v>0</v>
       </c>
       <c r="J47" s="1"/>
@@ -5366,7 +5438,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="36">
         <v>0</v>
       </c>
       <c r="J48" s="1"/>
@@ -5423,17 +5495,17 @@
       </c>
       <c r="F49" s="18">
         <f t="shared" si="4"/>
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="G49" s="18">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H49" s="18">
         <f t="shared" si="6"/>
-        <v>7500</v>
-      </c>
-      <c r="I49" s="35">
+        <v>9000</v>
+      </c>
+      <c r="I49" s="36">
         <v>0</v>
       </c>
       <c r="J49" s="1"/>
@@ -5449,7 +5521,10 @@
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="Q49" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -5506,7 +5581,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="36">
         <v>0</v>
       </c>
       <c r="J50" s="1"/>
@@ -5573,7 +5648,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="36">
         <v>0</v>
       </c>
       <c r="J51" s="1"/>
@@ -5640,7 +5715,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="36">
         <v>0</v>
       </c>
       <c r="J52" s="1"/>
@@ -5707,7 +5782,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="36">
         <v>0</v>
       </c>
       <c r="J53" s="1"/>
@@ -5774,7 +5849,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I54" s="35">
+      <c r="I54" s="36">
         <v>0</v>
       </c>
       <c r="J54" s="1"/>
@@ -5823,11 +5898,11 @@
       <c r="A55" s="12">
         <v>53</v>
       </c>
-      <c r="B55" s="32"/>
+      <c r="B55" s="33"/>
       <c r="D55" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="34" t="s">
         <v>75</v>
       </c>
       <c r="F55" s="18">
@@ -5842,7 +5917,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I55" s="35">
+      <c r="I55" s="36">
         <v>0</v>
       </c>
       <c r="J55" s="1"/>
@@ -5891,11 +5966,11 @@
       <c r="A56" s="12">
         <v>54</v>
       </c>
-      <c r="B56" s="32"/>
+      <c r="B56" s="33"/>
       <c r="D56" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="34" t="s">
         <v>76</v>
       </c>
       <c r="F56" s="18">
@@ -5910,7 +5985,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="36">
         <v>0</v>
       </c>
       <c r="J56" s="1"/>
@@ -5959,11 +6034,11 @@
       <c r="A57" s="12">
         <v>55</v>
       </c>
-      <c r="B57" s="32"/>
+      <c r="B57" s="33"/>
       <c r="D57" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="34" t="s">
         <v>77</v>
       </c>
       <c r="F57" s="18">
@@ -5978,7 +6053,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I57" s="35">
+      <c r="I57" s="36">
         <v>0</v>
       </c>
       <c r="J57" s="1"/>
@@ -6045,7 +6120,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I58" s="35">
+      <c r="I58" s="36">
         <v>1500</v>
       </c>
       <c r="J58" s="1"/>
@@ -6112,7 +6187,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I59" s="35">
+      <c r="I59" s="36">
         <v>6000</v>
       </c>
       <c r="J59" s="1"/>
@@ -6179,7 +6254,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I60" s="35">
+      <c r="I60" s="36">
         <v>0</v>
       </c>
       <c r="J60" s="1"/>
@@ -6246,7 +6321,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I61" s="36">
         <v>0</v>
       </c>
       <c r="J61" s="1"/>
@@ -6295,11 +6370,11 @@
       <c r="A62" s="12">
         <v>60</v>
       </c>
-      <c r="B62" s="32"/>
+      <c r="B62" s="33"/>
       <c r="D62" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="34" t="s">
         <v>84</v>
       </c>
       <c r="F62" s="18">
@@ -6314,7 +6389,7 @@
         <f t="shared" si="6"/>
         <v>6000</v>
       </c>
-      <c r="I62" s="35">
+      <c r="I62" s="36">
         <v>0</v>
       </c>
       <c r="J62" s="1"/>
@@ -6366,11 +6441,11 @@
       <c r="A63" s="12">
         <v>61</v>
       </c>
-      <c r="B63" s="32"/>
+      <c r="B63" s="33"/>
       <c r="D63" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="33" t="s">
+      <c r="E63" s="34" t="s">
         <v>85</v>
       </c>
       <c r="F63" s="18">
@@ -6385,7 +6460,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I63" s="35">
+      <c r="I63" s="36">
         <v>0</v>
       </c>
       <c r="J63" s="1"/>
@@ -6455,7 +6530,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="36">
         <v>0</v>
       </c>
       <c r="J64" s="1"/>
@@ -6525,7 +6600,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="29">
         <v>0</v>
       </c>
       <c r="J65" s="1"/>
@@ -6574,11 +6649,11 @@
       <c r="A66" s="12">
         <v>64</v>
       </c>
-      <c r="B66" s="32"/>
+      <c r="B66" s="33"/>
       <c r="D66" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="34" t="s">
         <v>90</v>
       </c>
       <c r="F66" s="18">
@@ -6593,7 +6668,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="36">
         <v>0</v>
       </c>
       <c r="J66" s="1"/>
@@ -6642,11 +6717,11 @@
       <c r="A67" s="12">
         <v>65</v>
       </c>
-      <c r="B67" s="32"/>
+      <c r="B67" s="33"/>
       <c r="D67" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="34" t="s">
         <v>92</v>
       </c>
       <c r="F67" s="18">
@@ -6661,7 +6736,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I67" s="35">
+      <c r="I67" s="36">
         <v>0</v>
       </c>
       <c r="J67" s="1"/>
@@ -6728,7 +6803,7 @@
         <f t="shared" ref="H68:H96" si="9">SUM(J68:AN68)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="35">
+      <c r="I68" s="36">
         <v>0</v>
       </c>
       <c r="J68" s="1"/>
@@ -6795,7 +6870,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I69" s="35">
+      <c r="I69" s="36">
         <v>0</v>
       </c>
       <c r="J69" s="1"/>
@@ -6862,7 +6937,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I70" s="35">
+      <c r="I70" s="36">
         <v>0</v>
       </c>
       <c r="J70" s="1"/>
@@ -6929,7 +7004,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I71" s="35">
+      <c r="I71" s="36">
         <v>0</v>
       </c>
       <c r="J71" s="1"/>
@@ -6986,17 +7061,17 @@
       </c>
       <c r="F72" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G72" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H72" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="35">
+        <v>6000</v>
+      </c>
+      <c r="I72" s="36">
         <v>0</v>
       </c>
       <c r="J72" s="1"/>
@@ -7006,7 +7081,10 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
@@ -7053,17 +7131,17 @@
       </c>
       <c r="F73" s="18">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="G73" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="35">
+        <v>1500</v>
+      </c>
+      <c r="I73" s="36">
         <v>6000</v>
       </c>
       <c r="J73" s="1"/>
@@ -7073,7 +7151,10 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="Q73" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
@@ -7112,11 +7193,11 @@
       <c r="A74" s="12">
         <v>72</v>
       </c>
-      <c r="B74" s="32"/>
+      <c r="B74" s="33"/>
       <c r="D74" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="34" t="s">
         <v>100</v>
       </c>
       <c r="F74" s="18">
@@ -7131,7 +7212,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I74" s="35">
+      <c r="I74" s="36">
         <v>0</v>
       </c>
       <c r="J74" s="1"/>
@@ -7201,7 +7282,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I75" s="35">
+      <c r="I75" s="36">
         <v>0</v>
       </c>
       <c r="J75" s="1"/>
@@ -7250,11 +7331,11 @@
       <c r="A76" s="12">
         <v>74</v>
       </c>
-      <c r="B76" s="32"/>
+      <c r="B76" s="33"/>
       <c r="D76" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="34" t="s">
         <v>102</v>
       </c>
       <c r="F76" s="18">
@@ -7269,7 +7350,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I76" s="35">
+      <c r="I76" s="36">
         <v>0</v>
       </c>
       <c r="J76" s="1"/>
@@ -7336,7 +7417,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I77" s="35">
+      <c r="I77" s="36">
         <v>0</v>
       </c>
       <c r="J77" s="1"/>
@@ -7403,7 +7484,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I78" s="35">
+      <c r="I78" s="36">
         <v>0</v>
       </c>
       <c r="J78" s="1"/>
@@ -7470,7 +7551,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I79" s="35">
+      <c r="I79" s="36">
         <v>0</v>
       </c>
       <c r="J79" s="1"/>
@@ -7519,8 +7600,8 @@
       <c r="A80" s="12">
         <v>78</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="E80" s="33" t="s">
+      <c r="B80" s="33"/>
+      <c r="E80" s="34" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="18">
@@ -7535,7 +7616,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I80" s="35">
+      <c r="I80" s="36">
         <v>0</v>
       </c>
       <c r="J80" s="1"/>
@@ -7584,11 +7665,11 @@
       <c r="A81" s="12">
         <v>79</v>
       </c>
-      <c r="B81" s="32"/>
+      <c r="B81" s="33"/>
       <c r="D81" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="34" t="s">
         <v>109</v>
       </c>
       <c r="F81" s="18">
@@ -7603,7 +7684,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I81" s="35">
+      <c r="I81" s="36">
         <v>0</v>
       </c>
       <c r="J81" s="1"/>
@@ -7652,8 +7733,8 @@
       <c r="A82" s="12">
         <v>80</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="E82" s="33" t="s">
+      <c r="B82" s="33"/>
+      <c r="E82" s="34" t="s">
         <v>110</v>
       </c>
       <c r="F82" s="18">
@@ -7668,7 +7749,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I82" s="35">
+      <c r="I82" s="36">
         <v>0</v>
       </c>
       <c r="J82" s="1"/>
@@ -7717,11 +7798,11 @@
       <c r="A83" s="12">
         <v>81</v>
       </c>
-      <c r="B83" s="32"/>
+      <c r="B83" s="33"/>
       <c r="D83" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="34" t="s">
         <v>112</v>
       </c>
       <c r="F83" s="18">
@@ -7736,7 +7817,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I83" s="35">
+      <c r="I83" s="36">
         <v>0</v>
       </c>
       <c r="J83" s="1"/>
@@ -7785,8 +7866,8 @@
       <c r="A84" s="12">
         <v>82</v>
       </c>
-      <c r="B84" s="32"/>
-      <c r="E84" s="33" t="s">
+      <c r="B84" s="33"/>
+      <c r="E84" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F84" s="18">
@@ -7801,7 +7882,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I84" s="35">
+      <c r="I84" s="36">
         <v>0</v>
       </c>
       <c r="J84" s="1"/>
@@ -7850,11 +7931,11 @@
       <c r="A85" s="12">
         <v>83</v>
       </c>
-      <c r="B85" s="32"/>
+      <c r="B85" s="33"/>
       <c r="D85" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="34" t="s">
         <v>115</v>
       </c>
       <c r="F85" s="18">
@@ -7869,7 +7950,7 @@
         <f t="shared" si="9"/>
         <v>4500</v>
       </c>
-      <c r="I85" s="35">
+      <c r="I85" s="36">
         <v>0</v>
       </c>
       <c r="J85" s="1"/>
@@ -7939,7 +8020,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I86" s="35">
+      <c r="I86" s="36">
         <v>0</v>
       </c>
       <c r="J86" s="1"/>
@@ -7988,14 +8069,14 @@
       <c r="A87" s="12">
         <v>85</v>
       </c>
-      <c r="B87" s="32"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="12">
         <v>683879115</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="34" t="s">
         <v>117</v>
       </c>
       <c r="F87" s="18">
@@ -8010,7 +8091,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I87" s="35">
+      <c r="I87" s="36">
         <v>0</v>
       </c>
       <c r="J87" s="1"/>
@@ -8059,11 +8140,11 @@
       <c r="A88" s="12">
         <v>86</v>
       </c>
-      <c r="B88" s="32"/>
+      <c r="B88" s="33"/>
       <c r="D88" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="34" t="s">
         <v>119</v>
       </c>
       <c r="F88" s="18">
@@ -8078,7 +8159,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I88" s="35">
+      <c r="I88" s="36">
         <v>0</v>
       </c>
       <c r="J88" s="1"/>
@@ -8127,8 +8208,8 @@
       <c r="A89" s="12">
         <v>87</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="E89" s="33" t="s">
+      <c r="B89" s="33"/>
+      <c r="E89" s="34" t="s">
         <v>120</v>
       </c>
       <c r="F89" s="18">
@@ -8143,7 +8224,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I89" s="35">
+      <c r="I89" s="36">
         <v>0</v>
       </c>
       <c r="J89" s="1"/>
@@ -8192,8 +8273,8 @@
       <c r="A90" s="12">
         <v>88</v>
       </c>
-      <c r="B90" s="32"/>
-      <c r="E90" s="33" t="s">
+      <c r="B90" s="33"/>
+      <c r="E90" s="34" t="s">
         <v>121</v>
       </c>
       <c r="F90" s="18">
@@ -8208,7 +8289,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I90" s="35">
+      <c r="I90" s="36">
         <v>0</v>
       </c>
       <c r="J90" s="1"/>
@@ -8257,8 +8338,8 @@
       <c r="A91" s="12">
         <v>89</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="E91" s="33" t="s">
+      <c r="B91" s="33"/>
+      <c r="E91" s="34" t="s">
         <v>122</v>
       </c>
       <c r="F91" s="18">
@@ -8273,7 +8354,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I91" s="35">
+      <c r="I91" s="36">
         <v>0</v>
       </c>
       <c r="J91" s="1"/>
@@ -8340,7 +8421,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="36">
         <v>0</v>
       </c>
       <c r="J92" s="1"/>
@@ -8404,7 +8485,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I93" s="35">
+      <c r="I93" s="36">
         <v>0</v>
       </c>
       <c r="J93" s="1"/>
@@ -8471,7 +8552,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I94" s="35">
+      <c r="I94" s="36">
         <v>0</v>
       </c>
       <c r="J94" s="1"/>
@@ -8535,7 +8616,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I95" s="35">
+      <c r="I95" s="36">
         <v>0</v>
       </c>
       <c r="J95" s="1"/>
@@ -8599,7 +8680,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I96" s="35">
+      <c r="I96" s="36">
         <v>0</v>
       </c>
       <c r="J96" s="1"/>
@@ -8653,17 +8734,17 @@
       </c>
       <c r="F97" s="18">
         <f t="shared" ref="F97:F128" si="10">H97+I97</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G97" s="18">
         <f t="shared" ref="G97:G128" si="11">H97/1500</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97" s="18">
         <f t="shared" ref="H97:H128" si="12">SUM(J97:AN97)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="35">
+        <v>3000</v>
+      </c>
+      <c r="I97" s="36">
         <v>0</v>
       </c>
       <c r="J97" s="1"/>
@@ -8675,7 +8756,10 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
+      <c r="S97" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
@@ -8726,7 +8810,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I98" s="35">
+      <c r="I98" s="36">
         <v>0</v>
       </c>
       <c r="J98" s="1"/>
@@ -8796,7 +8880,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I99" s="35">
+      <c r="I99" s="36">
         <v>0</v>
       </c>
       <c r="J99" s="1"/>
@@ -8863,7 +8947,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I100" s="35">
+      <c r="I100" s="36">
         <v>0</v>
       </c>
       <c r="J100" s="1"/>
@@ -8920,17 +9004,17 @@
       </c>
       <c r="F101" s="18">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="G101" s="18">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" s="18">
         <f t="shared" si="12"/>
-        <v>3000</v>
-      </c>
-      <c r="I101" s="35">
+        <v>7500</v>
+      </c>
+      <c r="I101" s="36">
         <v>0</v>
       </c>
       <c r="J101" s="1"/>
@@ -8945,7 +9029,10 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
+      <c r="S101" s="1">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
@@ -9000,7 +9087,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I102" s="35">
+      <c r="I102" s="36">
         <v>0</v>
       </c>
       <c r="J102" s="1"/>
@@ -9070,7 +9157,7 @@
         <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="I103" s="35">
+      <c r="I103" s="36">
         <v>0</v>
       </c>
       <c r="J103" s="1"/>
@@ -9143,7 +9230,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I104" s="35">
+      <c r="I104" s="36">
         <v>0</v>
       </c>
       <c r="J104" s="1"/>
@@ -9207,7 +9294,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I105" s="35">
+      <c r="I105" s="36">
         <v>0</v>
       </c>
       <c r="J105" s="1"/>
@@ -9274,7 +9361,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I106" s="35">
+      <c r="I106" s="36">
         <v>0</v>
       </c>
       <c r="J106" s="1"/>
@@ -9334,17 +9421,17 @@
       </c>
       <c r="F107" s="18">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G107" s="18">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H107" s="18">
         <f t="shared" si="12"/>
-        <v>3000</v>
-      </c>
-      <c r="I107" s="35">
+        <v>6000</v>
+      </c>
+      <c r="I107" s="36">
         <v>0</v>
       </c>
       <c r="J107" s="1"/>
@@ -9357,7 +9444,10 @@
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
+      <c r="Q107" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
@@ -9414,7 +9504,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I108" s="35">
+      <c r="I108" s="36">
         <v>0</v>
       </c>
       <c r="J108" s="1"/>
@@ -9481,7 +9571,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I109" s="35">
+      <c r="I109" s="36">
         <v>0</v>
       </c>
       <c r="J109" s="1"/>
@@ -9548,7 +9638,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I110" s="35">
+      <c r="I110" s="36">
         <v>0</v>
       </c>
       <c r="J110" s="1"/>
@@ -9618,7 +9708,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I111" s="35">
+      <c r="I111" s="36">
         <v>0</v>
       </c>
       <c r="J111" s="1"/>
@@ -9687,7 +9777,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I112" s="35">
+      <c r="I112" s="36">
         <v>0</v>
       </c>
       <c r="J112" s="1"/>
@@ -9757,7 +9847,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I113" s="35">
+      <c r="I113" s="36">
         <v>0</v>
       </c>
       <c r="J113" s="1"/>
@@ -9824,7 +9914,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I114" s="35">
+      <c r="I114" s="36">
         <v>0</v>
       </c>
       <c r="J114" s="1"/>
@@ -9894,7 +9984,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I115" s="35">
+      <c r="I115" s="36">
         <v>0</v>
       </c>
       <c r="J115" s="1"/>
@@ -9963,7 +10053,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I116" s="35">
+      <c r="I116" s="36">
         <v>0</v>
       </c>
       <c r="J116" s="1"/>
@@ -10023,7 +10113,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I117" s="35">
+      <c r="I117" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10052,7 +10142,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I118" s="35">
+      <c r="I118" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10081,7 +10171,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I119" s="35">
+      <c r="I119" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10107,7 +10197,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I120" s="35">
+      <c r="I120" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10136,7 +10226,7 @@
         <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="I121" s="35">
+      <c r="I121" s="36">
         <v>0</v>
       </c>
       <c r="N121" s="12">
@@ -10169,7 +10259,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I122" s="35">
+      <c r="I122" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10195,7 +10285,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I123" s="35">
+      <c r="I123" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10224,7 +10314,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I124" s="35">
+      <c r="I124" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10253,7 +10343,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I125" s="35">
+      <c r="I125" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10279,7 +10369,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I126" s="35">
+      <c r="I126" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10308,7 +10398,7 @@
         <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="I127" s="35">
+      <c r="I127" s="36">
         <v>0</v>
       </c>
       <c r="K127" s="1">
@@ -10338,7 +10428,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I128" s="35">
+      <c r="I128" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10350,18 +10440,18 @@
         <v>178</v>
       </c>
       <c r="F129" s="18">
-        <f t="shared" ref="F129:F175" si="13">H129+I129</f>
+        <f t="shared" ref="F129:F177" si="13">H129+I129</f>
         <v>0</v>
       </c>
       <c r="G129" s="18">
-        <f t="shared" ref="G129:G175" si="14">H129/1500</f>
+        <f t="shared" ref="G129:G177" si="14">H129/1500</f>
         <v>0</v>
       </c>
       <c r="H129" s="18">
-        <f t="shared" ref="H129:H175" si="15">SUM(J129:AN129)</f>
-        <v>0</v>
-      </c>
-      <c r="I129" s="35">
+        <f t="shared" ref="H129:H177" si="15">SUM(J129:AN129)</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10390,11 +10480,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I130" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="I130" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="12">
         <v>128</v>
       </c>
@@ -10406,23 +10496,27 @@
       </c>
       <c r="F131" s="18">
         <f t="shared" si="13"/>
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G131" s="18">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" s="18">
         <f t="shared" si="15"/>
-        <v>1500</v>
-      </c>
-      <c r="I131" s="35">
+        <v>4500</v>
+      </c>
+      <c r="I131" s="36">
         <v>0</v>
       </c>
       <c r="N131" s="12">
         <f>1*1500</f>
         <v>1500</v>
       </c>
+      <c r="S131" s="12">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="12">
@@ -10443,7 +10537,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I132" s="35">
+      <c r="I132" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10469,7 +10563,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I133" s="35">
+      <c r="I133" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10495,11 +10589,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I134" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="I134" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="12">
         <v>132</v>
       </c>
@@ -10511,18 +10605,22 @@
       </c>
       <c r="F135" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G135" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135" s="18">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I135" s="35">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="I135" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="12">
+        <f>2*1500</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -10547,7 +10645,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I136" s="35">
+      <c r="I136" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10570,7 +10668,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I137" s="35">
+      <c r="I137" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10596,7 +10694,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I138" s="35">
+      <c r="I138" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10622,7 +10720,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I139" s="35">
+      <c r="I139" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10648,11 +10746,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I140" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="I140" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="12">
         <v>138</v>
       </c>
@@ -10664,18 +10762,26 @@
       </c>
       <c r="F141" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G141" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H141" s="18">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I141" s="35">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="I141" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="12">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
+      <c r="S141" s="12">
+        <f>1*1500</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -10700,7 +10806,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I142" s="35">
+      <c r="I142" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10726,7 +10832,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I143" s="35">
+      <c r="I143" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10752,7 +10858,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I144" s="35">
+      <c r="I144" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10778,7 +10884,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I145" s="35">
+      <c r="I145" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10804,7 +10910,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I146" s="35">
+      <c r="I146" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10830,7 +10936,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I147" s="35">
+      <c r="I147" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10856,7 +10962,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I148" s="35">
+      <c r="I148" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10879,7 +10985,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I149" s="35">
+      <c r="I149" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10902,7 +11008,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I150" s="35">
+      <c r="I150" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10928,7 +11034,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I151" s="35">
+      <c r="I151" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10951,7 +11057,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I152" s="35">
+      <c r="I152" s="36">
         <v>0</v>
       </c>
     </row>
@@ -10977,7 +11083,7 @@
         <f t="shared" si="15"/>
         <v>1500</v>
       </c>
-      <c r="I153" s="35">
+      <c r="I153" s="36">
         <v>0</v>
       </c>
       <c r="L153" s="12">
@@ -11004,7 +11110,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I154" s="35">
+      <c r="I154" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11030,7 +11136,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I155" s="35">
+      <c r="I155" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11053,7 +11159,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I156" s="35">
+      <c r="I156" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11076,7 +11182,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I157" s="35">
+      <c r="I157" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11099,7 +11205,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I158" s="35">
+      <c r="I158" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11119,7 +11225,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I159" s="35">
+      <c r="I159" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11145,7 +11251,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I160" s="35">
+      <c r="I160" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11171,7 +11277,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I161" s="35">
+      <c r="I161" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11191,7 +11297,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I162" s="35">
+      <c r="I162" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11211,7 +11317,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I163" s="35">
+      <c r="I163" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11231,7 +11337,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I164" s="35">
+      <c r="I164" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11251,7 +11357,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I165" s="35">
+      <c r="I165" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11277,7 +11383,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I166" s="35">
+      <c r="I166" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11303,11 +11409,11 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I167" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+      <c r="I167" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="12">
         <v>165</v>
       </c>
@@ -11319,18 +11425,22 @@
       </c>
       <c r="F168" s="18">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G168" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H168" s="18">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I168" s="35">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="I168" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="12">
+        <f>2*1500</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -11355,7 +11465,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I169" s="35">
+      <c r="I169" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11381,7 +11491,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I170" s="35">
+      <c r="I170" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11407,7 +11517,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I171" s="35">
+      <c r="I171" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11433,7 +11543,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I172" s="35">
+      <c r="I172" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11459,7 +11569,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I173" s="35">
+      <c r="I173" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11485,7 +11595,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I174" s="35">
+      <c r="I174" s="36">
         <v>0</v>
       </c>
     </row>
@@ -11511,8 +11621,58 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I175" s="35">
-        <v>0</v>
+      <c r="I175" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="12">
+        <v>173</v>
+      </c>
+      <c r="F176" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G176" s="18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H176" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I176" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="A177" s="12">
+        <v>174</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F177" s="18">
+        <f t="shared" si="13"/>
+        <v>15000</v>
+      </c>
+      <c r="G177" s="18">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="H177" s="18">
+        <f t="shared" si="15"/>
+        <v>15000</v>
+      </c>
+      <c r="I177" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="12">
+        <f>10*1500</f>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -11527,14 +11687,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA175"/>
+  <dimension ref="A1:BA177"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="K165" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N104" sqref="N104"/>
+      <selection pane="bottomRight" activeCell="R185" sqref="R185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -11571,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>3</v>
@@ -11580,7 +11740,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I1" s="24">
         <v>44378</v>
@@ -11685,14 +11845,14 @@
       <c r="E2" s="20"/>
       <c r="F2" s="21">
         <f>SUM(H3:H1000)</f>
-        <v>53000</v>
+        <v>110500</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="21">
         <f>SUM(I2:AM2)</f>
-        <v>53000</v>
+        <v>110500</v>
       </c>
       <c r="I2" s="25">
         <f>SUM(I3:I1000)</f>
@@ -11724,15 +11884,15 @@
       </c>
       <c r="P2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16500</v>
       </c>
       <c r="Q2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="R2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="S2" s="25">
         <f t="shared" si="0"/>
@@ -11825,13 +11985,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" s="12">
         <v>9334066332</v>
@@ -11897,16 +12057,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>10</v>
@@ -12035,13 +12195,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" s="12">
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E6" s="12">
         <v>9102317719</v>
@@ -12111,13 +12271,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" s="12">
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E7" s="12">
         <v>8210924561</v>
@@ -12328,7 +12488,7 @@
       </c>
       <c r="H10" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -12339,7 +12499,9 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1">
+        <v>15000</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -12381,13 +12543,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C11" s="12">
         <v>9</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E11" s="12">
         <v>9973022718</v>
@@ -12585,13 +12747,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C14" s="12">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E14" s="12">
         <v>7004740439</v>
@@ -12726,13 +12888,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C16" s="12">
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E16" s="12">
         <v>7321004323</v>
@@ -12924,13 +13086,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19" s="12">
         <v>17</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E19" s="12">
         <v>9608475282</v>
@@ -12996,13 +13158,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="12">
         <v>18</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E20" s="12">
         <v>9661555592</v>
@@ -13068,13 +13230,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="12">
         <v>19</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E21" s="12">
         <v>8340523512</v>
@@ -13206,13 +13368,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="12">
         <v>21</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E23" s="12">
         <v>7004478123</v>
@@ -13344,13 +13506,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C25" s="12">
         <v>23</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" s="12">
         <v>7006041121</v>
@@ -13363,7 +13525,7 @@
       </c>
       <c r="H25" s="18">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -13375,7 +13537,9 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1">
+        <v>3000</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -13418,13 +13582,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="12">
         <v>24</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E26" s="12">
         <v>8709658240</v>
@@ -13754,13 +13918,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="12">
         <v>29</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>37</v>
@@ -13823,13 +13987,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C32" s="12">
         <v>30</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>37</v>
@@ -13839,7 +14003,7 @@
       </c>
       <c r="H32" s="18">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="I32" s="26">
         <v>1000</v>
@@ -13851,7 +14015,9 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="26">
+        <v>4000</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -13957,13 +14123,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="12">
         <v>32</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>52</v>
@@ -14167,7 +14333,7 @@
       </c>
       <c r="H37" s="18">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="I37" s="26">
         <v>3500</v>
@@ -14179,7 +14345,9 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="Q37" s="1">
+        <v>3000</v>
+      </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -14285,13 +14453,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C39" s="12">
         <v>37</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>52</v>
@@ -14301,7 +14469,7 @@
       </c>
       <c r="H39" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -14311,7 +14479,9 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="26">
+        <v>1000</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -14354,16 +14524,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C40" s="12">
         <v>38</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>52</v>
@@ -14744,13 +14914,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C46" s="12">
         <v>44</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>65</v>
@@ -14760,7 +14930,7 @@
       </c>
       <c r="H46" s="18">
         <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>9000</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -14773,7 +14943,9 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="R46" s="26">
+        <v>7500</v>
+      </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -14878,13 +15050,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C48" s="12">
         <v>46</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>65</v>
@@ -14947,13 +15119,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C49" s="12">
         <v>47</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E49" s="12">
         <v>8863097933</v>
@@ -14966,7 +15138,7 @@
       </c>
       <c r="H49" s="18">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -14979,7 +15151,9 @@
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="1">
+        <v>1500</v>
+      </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -15023,13 +15197,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C50" s="12">
         <v>48</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E50" s="12">
         <v>9835443096</v>
@@ -15095,13 +15269,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C51" s="12">
         <v>49</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>65</v>
@@ -15227,13 +15401,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C53" s="12">
         <v>51</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>65</v>
@@ -15359,13 +15533,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C55" s="12">
         <v>53</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>65</v>
@@ -15428,13 +15602,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C56" s="12">
         <v>54</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>65</v>
@@ -15629,13 +15803,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C59" s="12">
         <v>57</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>78</v>
@@ -15824,13 +15998,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C62" s="12">
         <v>60</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E62" s="12">
         <v>9504958065</v>
@@ -15964,16 +16138,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C64" s="12">
         <v>62</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>83</v>
@@ -16036,13 +16210,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C65" s="12">
         <v>63</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E65" s="12">
         <v>7004399486</v>
@@ -16108,13 +16282,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C66" s="12">
         <v>64</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>88</v>
@@ -16502,7 +16676,7 @@
       </c>
       <c r="H72" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -16511,7 +16685,9 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="P72" s="26">
+        <v>6000</v>
+      </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -16620,13 +16796,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C74" s="12">
         <v>72</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E74" s="12">
         <v>8825370430</v>
@@ -16821,13 +16997,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C77" s="12">
         <v>75</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E77" s="12">
         <v>6200769032</v>
@@ -16893,13 +17069,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C78" s="12">
         <v>76</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>103</v>
@@ -16962,13 +17138,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C79" s="12">
         <v>77</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>103</v>
@@ -17091,16 +17267,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C81" s="12">
         <v>79</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>108</v>
@@ -17346,13 +17522,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C85" s="12">
         <v>83</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>114</v>
@@ -17483,13 +17659,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C87" s="12">
         <v>85</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E87" s="12">
         <v>7004210181</v>
@@ -17678,13 +17854,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C90" s="12">
         <v>88</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G90" s="23" t="s">
         <v>121</v>
@@ -18117,7 +18293,7 @@
       </c>
       <c r="H97" s="18">
         <f t="shared" ref="H97:H128" si="4">SUM(I97:AM97)</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -18128,7 +18304,9 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
+      <c r="R97" s="1">
+        <v>1500</v>
+      </c>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
@@ -18345,7 +18523,7 @@
       </c>
       <c r="H101" s="18">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -18358,7 +18536,9 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
+      <c r="R101" s="1">
+        <v>4500</v>
+      </c>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
@@ -18694,7 +18874,7 @@
       </c>
       <c r="H107" s="18">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -18705,7 +18885,9 @@
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="P107" s="1">
+        <v>3000</v>
+      </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -19286,7 +19468,7 @@
         <v>178</v>
       </c>
       <c r="H129" s="18">
-        <f t="shared" ref="H129:H175" si="5">SUM(I129:AM129)</f>
+        <f t="shared" ref="H129:H177" si="5">SUM(I129:AM129)</f>
         <v>0</v>
       </c>
     </row>
@@ -19365,7 +19547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:8">
+    <row r="135" spans="3:16">
       <c r="C135" s="12">
         <v>132</v>
       </c>
@@ -19377,7 +19559,10 @@
       </c>
       <c r="H135" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="P135" s="12">
+        <v>3000</v>
       </c>
     </row>
     <row r="136" spans="3:8">
@@ -19452,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:8">
+    <row r="141" spans="3:18">
       <c r="C141" s="12">
         <v>138</v>
       </c>
@@ -19464,7 +19649,13 @@
       </c>
       <c r="H141" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="P141" s="28">
+        <v>1500</v>
+      </c>
+      <c r="R141" s="12">
+        <v>1500</v>
       </c>
     </row>
     <row r="142" spans="3:8">
@@ -19806,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:8">
+    <row r="168" spans="3:16">
       <c r="C168" s="12">
         <v>165</v>
       </c>
@@ -19818,7 +20009,10 @@
       </c>
       <c r="H168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="P168" s="28">
+        <v>1500</v>
       </c>
     </row>
     <row r="169" spans="3:8">
@@ -19922,6 +20116,24 @@
         <v>217</v>
       </c>
       <c r="H175" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="8:8">
+      <c r="H176" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8">
+      <c r="F177" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H177" s="18">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -19932,18 +20144,19 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E175"/>
+  <sheetPr/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -19962,35 +20175,35 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="4">
         <f>ROUND(SUM(D3:D1000),0)</f>
-        <v>78500</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="7">
         <f>Orders!F2-Collection!H2</f>
-        <v>78500</v>
+        <v>102000</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(D3:D97)</f>
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="3" hidden="1" spans="1:4">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -20005,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -20062,10 +20275,10 @@
       </c>
       <c r="D7" s="11">
         <f>Orders!F7-Collection!H7</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:4">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -20080,7 +20293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -20125,7 +20338,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -20140,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:4">
+    <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
@@ -20155,7 +20368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -20170,7 +20383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -20185,7 +20398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
@@ -20200,7 +20413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
@@ -20245,7 +20458,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -20275,7 +20488,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
@@ -20290,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
@@ -20305,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:4">
+    <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
@@ -20320,7 +20533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
@@ -20335,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>37</v>
       </c>
@@ -20365,7 +20578,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:4">
+    <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
@@ -20380,7 +20593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -20395,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -20410,7 +20623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>37</v>
       </c>
@@ -20437,10 +20650,10 @@
       </c>
       <c r="D32" s="11">
         <f>Orders!F32-Collection!H32</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
@@ -20470,7 +20683,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:4">
+    <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>52</v>
       </c>
@@ -20500,7 +20713,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
+    <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
         <v>52</v>
       </c>
@@ -20515,7 +20728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>52</v>
       </c>
@@ -20542,10 +20755,10 @@
       </c>
       <c r="D39" s="11">
         <f>Orders!F39-Collection!H39</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>52</v>
       </c>
@@ -20587,7 +20800,7 @@
       </c>
       <c r="D42" s="11">
         <f>Orders!F42-Collection!H42</f>
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -20605,7 +20818,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>52</v>
       </c>
@@ -20635,7 +20848,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:4">
+    <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>65</v>
       </c>
@@ -20650,7 +20863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:4">
+    <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>65</v>
       </c>
@@ -20665,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>65</v>
       </c>
@@ -20680,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:4">
+    <row r="49" spans="1:4">
       <c r="A49" s="13" t="s">
         <v>65</v>
       </c>
@@ -20695,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
         <v>65</v>
       </c>
@@ -20710,7 +20923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
         <v>65</v>
       </c>
@@ -20725,7 +20938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>65</v>
       </c>
@@ -20740,7 +20953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9" t="s">
         <v>65</v>
       </c>
@@ -20755,7 +20968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:4">
+    <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
         <v>65</v>
       </c>
@@ -20770,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:4">
+    <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
@@ -20785,7 +20998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56" s="9" t="s">
         <v>65</v>
       </c>
@@ -20800,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>65</v>
       </c>
@@ -20845,7 +21058,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:4">
+    <row r="60" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>78</v>
       </c>
@@ -20860,7 +21073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>78</v>
       </c>
@@ -20875,7 +21088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>83</v>
       </c>
@@ -20890,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
+    <row r="63" spans="1:4">
       <c r="A63" s="13" t="s">
         <v>83</v>
       </c>
@@ -20905,7 +21118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>83</v>
       </c>
@@ -20920,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>88</v>
       </c>
@@ -20935,7 +21148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>88</v>
       </c>
@@ -20950,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:4">
+    <row r="67" spans="1:4">
       <c r="A67" s="9" t="s">
         <v>91</v>
       </c>
@@ -20965,7 +21178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68" s="9" t="s">
         <v>93</v>
       </c>
@@ -20980,7 +21193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>93</v>
       </c>
@@ -20995,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>93</v>
       </c>
@@ -21010,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>93</v>
       </c>
@@ -21025,7 +21238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:4">
+    <row r="72" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>93</v>
       </c>
@@ -21040,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>93</v>
       </c>
@@ -21052,10 +21265,10 @@
       </c>
       <c r="D73" s="11">
         <f>Orders!F73-Collection!H73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" spans="1:4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="9" t="s">
         <v>93</v>
       </c>
@@ -21070,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" s="9" t="s">
         <v>93</v>
       </c>
@@ -21085,7 +21298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>93</v>
       </c>
@@ -21100,7 +21313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:4">
+    <row r="77" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>103</v>
       </c>
@@ -21115,7 +21328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
+    <row r="78" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>103</v>
       </c>
@@ -21130,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>103</v>
       </c>
@@ -21145,7 +21358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
+    <row r="80" spans="1:4">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
@@ -21156,7 +21369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81" s="9" t="s">
         <v>108</v>
       </c>
@@ -21171,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10" t="s">
@@ -21182,7 +21395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>111</v>
       </c>
@@ -21197,7 +21410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10" t="s">
@@ -21208,7 +21421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>114</v>
       </c>
@@ -21223,7 +21436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>114</v>
       </c>
@@ -21238,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>114</v>
       </c>
@@ -21253,7 +21466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>118</v>
       </c>
@@ -21268,7 +21481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
@@ -21279,7 +21492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
+    <row r="90" spans="1:4">
       <c r="A90" s="9" t="s">
         <v>24</v>
       </c>
@@ -21294,7 +21507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91" s="9" t="s">
         <v>93</v>
       </c>
@@ -21309,9 +21522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B92" s="9">
         <v>7992363545</v>
@@ -21324,7 +21537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="10" t="s">
@@ -21335,7 +21548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:4">
+    <row r="94" spans="1:4">
       <c r="A94" s="9" t="s">
         <v>126</v>
       </c>
@@ -21350,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:4">
+    <row r="95" spans="1:4">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
@@ -21361,7 +21574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="10" t="s">
@@ -21372,7 +21585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:4">
+    <row r="97" spans="1:4">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="9" t="s">
@@ -21380,12 +21593,12 @@
       </c>
       <c r="D97" s="11">
         <f>Orders!F97-Collection!H97</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -21393,11 +21606,11 @@
         <v>0.1</v>
       </c>
       <c r="E98" s="8">
-        <f>SUM(D99:D175)</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="99" hidden="1" spans="1:4">
+        <f>SUM(D99:D200)</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="9" t="s">
         <v>133</v>
       </c>
@@ -21412,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:4">
+    <row r="100" spans="1:4">
       <c r="A100" s="9" t="s">
         <v>133</v>
       </c>
@@ -21438,7 +21651,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:4">
+    <row r="102" spans="1:4">
       <c r="A102" s="9" t="s">
         <v>133</v>
       </c>
@@ -21451,7 +21664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:4">
+    <row r="103" spans="1:4">
       <c r="A103" s="9" t="s">
         <v>133</v>
       </c>
@@ -21466,7 +21679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104" s="9" t="s">
         <v>133</v>
       </c>
@@ -21481,7 +21694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:4">
+    <row r="105" spans="1:4">
       <c r="A105" s="9" t="s">
         <v>133</v>
       </c>
@@ -21492,7 +21705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:4">
+    <row r="106" spans="1:4">
       <c r="A106" s="9" t="s">
         <v>133</v>
       </c>
@@ -21505,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:4">
+    <row r="107" spans="1:4">
       <c r="A107" s="9" t="s">
         <v>133</v>
       </c>
@@ -21520,7 +21733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:4">
+    <row r="108" spans="1:4">
       <c r="A108" s="9" t="s">
         <v>133</v>
       </c>
@@ -21533,7 +21746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:4">
+    <row r="109" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>133</v>
       </c>
@@ -21546,7 +21759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:4">
+    <row r="110" spans="1:4">
       <c r="A110" s="9" t="s">
         <v>133</v>
       </c>
@@ -21559,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:4">
+    <row r="111" spans="1:4">
       <c r="A111" s="9" t="s">
         <v>133</v>
       </c>
@@ -21574,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:4">
+    <row r="112" spans="1:4">
       <c r="A112" s="9" t="s">
         <v>133</v>
       </c>
@@ -21589,7 +21802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:4">
+    <row r="113" spans="1:4">
       <c r="A113" s="9" t="s">
         <v>133</v>
       </c>
@@ -21604,7 +21817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:4">
+    <row r="114" spans="1:4">
       <c r="A114" s="9" t="s">
         <v>133</v>
       </c>
@@ -21617,7 +21830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:4">
+    <row r="115" spans="1:4">
       <c r="A115" s="9" t="s">
         <v>133</v>
       </c>
@@ -21632,7 +21845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:4">
+    <row r="116" spans="1:4">
       <c r="A116" s="9" t="s">
         <v>133</v>
       </c>
@@ -21647,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:4">
+    <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>133</v>
       </c>
@@ -21662,7 +21875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:4">
+    <row r="118" spans="1:4">
       <c r="A118" s="9" t="s">
         <v>133</v>
       </c>
@@ -21677,7 +21890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:4">
+    <row r="119" spans="1:4">
       <c r="A119" s="9" t="s">
         <v>133</v>
       </c>
@@ -21692,7 +21905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:4">
+    <row r="120" spans="1:4">
       <c r="A120" s="9" t="s">
         <v>133</v>
       </c>
@@ -21705,7 +21918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:4">
+    <row r="121" spans="1:4">
       <c r="A121" s="9" t="s">
         <v>133</v>
       </c>
@@ -21720,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:4">
+    <row r="122" spans="1:4">
       <c r="A122" s="9" t="s">
         <v>133</v>
       </c>
@@ -21735,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:4">
+    <row r="123" spans="1:4">
       <c r="A123" s="9" t="s">
         <v>133</v>
       </c>
@@ -21748,7 +21961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:4">
+    <row r="124" spans="1:4">
       <c r="A124" s="9" t="s">
         <v>133</v>
       </c>
@@ -21763,7 +21976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:4">
+    <row r="125" spans="1:4">
       <c r="A125" s="9" t="s">
         <v>133</v>
       </c>
@@ -21778,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:4">
+    <row r="126" spans="1:4">
       <c r="A126" s="9" t="s">
         <v>133</v>
       </c>
@@ -21791,7 +22004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:4">
+    <row r="127" spans="1:4">
       <c r="A127" s="9" t="s">
         <v>133</v>
       </c>
@@ -21806,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:4">
+    <row r="128" spans="1:4">
       <c r="A128" s="9" t="s">
         <v>133</v>
       </c>
@@ -21819,7 +22032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:4">
+    <row r="129" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>178</v>
       </c>
@@ -21830,7 +22043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:4">
+    <row r="130" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>178</v>
       </c>
@@ -21845,7 +22058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:4">
+    <row r="131" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>178</v>
       </c>
@@ -21857,10 +22070,10 @@
       </c>
       <c r="D131" s="11">
         <f>Orders!F131-Collection!H131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>178</v>
       </c>
@@ -21871,7 +22084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:4">
+    <row r="133" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>178</v>
       </c>
@@ -21886,7 +22099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:4">
+    <row r="134" spans="1:4">
       <c r="A134" s="9" t="s">
         <v>178</v>
       </c>
@@ -21901,7 +22114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:4">
+    <row r="135" spans="1:4">
       <c r="A135" s="9" t="s">
         <v>178</v>
       </c>
@@ -21916,7 +22129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:4">
+    <row r="136" spans="1:4">
       <c r="A136" s="9" t="s">
         <v>178</v>
       </c>
@@ -21929,7 +22142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:4">
+    <row r="137" spans="1:4">
       <c r="A137" s="9" t="s">
         <v>178</v>
       </c>
@@ -21942,7 +22155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:4">
+    <row r="138" spans="1:4">
       <c r="A138" s="9" t="s">
         <v>178</v>
       </c>
@@ -21955,7 +22168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:4">
+    <row r="139" spans="1:4">
       <c r="A139" s="9" t="s">
         <v>178</v>
       </c>
@@ -21968,7 +22181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:4">
+    <row r="140" spans="1:4">
       <c r="A140" s="9" t="s">
         <v>178</v>
       </c>
@@ -21983,7 +22196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:4">
+    <row r="141" spans="1:4">
       <c r="A141" s="9" t="s">
         <v>178</v>
       </c>
@@ -21998,7 +22211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:4">
+    <row r="142" spans="1:4">
       <c r="A142" s="9" t="s">
         <v>178</v>
       </c>
@@ -22013,7 +22226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:4">
+    <row r="143" spans="1:4">
       <c r="A143" s="9" t="s">
         <v>178</v>
       </c>
@@ -22028,7 +22241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:4">
+    <row r="144" spans="1:4">
       <c r="A144" s="9" t="s">
         <v>178</v>
       </c>
@@ -22043,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:4">
+    <row r="145" spans="1:4">
       <c r="A145" s="9" t="s">
         <v>178</v>
       </c>
@@ -22056,7 +22269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:4">
+    <row r="146" spans="1:4">
       <c r="A146" s="9" t="s">
         <v>193</v>
       </c>
@@ -22071,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:4">
+    <row r="147" spans="1:4">
       <c r="A147" s="9" t="s">
         <v>193</v>
       </c>
@@ -22084,7 +22297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:4">
+    <row r="148" spans="1:4">
       <c r="A148" s="9" t="s">
         <v>193</v>
       </c>
@@ -22099,7 +22312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:4">
+    <row r="149" spans="1:4">
       <c r="A149" s="9" t="s">
         <v>193</v>
       </c>
@@ -22110,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:4">
+    <row r="150" spans="1:4">
       <c r="A150" s="9" t="s">
         <v>193</v>
       </c>
@@ -22121,7 +22334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:4">
+    <row r="151" spans="1:4">
       <c r="A151" s="9" t="s">
         <v>197</v>
       </c>
@@ -22136,7 +22349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:4">
+    <row r="152" spans="1:4">
       <c r="A152" s="9" t="s">
         <v>197</v>
       </c>
@@ -22162,7 +22375,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:4">
+    <row r="154" spans="1:4">
       <c r="A154" s="9" t="s">
         <v>197</v>
       </c>
@@ -22173,7 +22386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:4">
+    <row r="155" spans="1:4">
       <c r="A155" s="9" t="s">
         <v>200</v>
       </c>
@@ -22186,7 +22399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:4">
+    <row r="156" spans="1:4">
       <c r="A156" s="9" t="s">
         <v>200</v>
       </c>
@@ -22197,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:4">
+    <row r="157" spans="1:4">
       <c r="A157" s="9" t="s">
         <v>200</v>
       </c>
@@ -22208,7 +22421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:4">
+    <row r="158" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -22219,7 +22432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:4">
+    <row r="159" spans="1:4">
       <c r="A159" s="9"/>
       <c r="B159" s="14"/>
       <c r="C159" s="9"/>
@@ -22228,7 +22441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:4">
+    <row r="160" spans="1:4">
       <c r="A160" s="9" t="s">
         <v>202</v>
       </c>
@@ -22243,7 +22456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:4">
+    <row r="161" spans="1:4">
       <c r="A161" s="9" t="s">
         <v>204</v>
       </c>
@@ -22258,7 +22471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:4">
+    <row r="162" spans="1:4">
       <c r="A162" s="9"/>
       <c r="B162" s="14"/>
       <c r="C162" s="9"/>
@@ -22267,7 +22480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:4">
+    <row r="163" spans="1:4">
       <c r="A163" s="9"/>
       <c r="B163" s="14"/>
       <c r="C163" s="9"/>
@@ -22276,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:4">
+    <row r="164" spans="1:4">
       <c r="A164" s="9"/>
       <c r="B164" s="14"/>
       <c r="C164" s="9"/>
@@ -22285,7 +22498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:4">
+    <row r="165" spans="1:4">
       <c r="A165" s="9"/>
       <c r="B165" s="14"/>
       <c r="C165" s="9"/>
@@ -22294,7 +22507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:4">
+    <row r="166" spans="1:4">
       <c r="A166" s="9" t="s">
         <v>78</v>
       </c>
@@ -22307,7 +22520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:4">
+    <row r="167" spans="1:4">
       <c r="A167" s="9" t="s">
         <v>207</v>
       </c>
@@ -22322,7 +22535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:4">
+    <row r="168" spans="1:4">
       <c r="A168" s="9" t="s">
         <v>207</v>
       </c>
@@ -22334,10 +22547,10 @@
       </c>
       <c r="D168" s="11">
         <f>Orders!F168-Collection!H168</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" hidden="1" spans="1:4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="9" t="s">
         <v>207</v>
       </c>
@@ -22352,7 +22565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:4">
+    <row r="170" spans="1:4">
       <c r="A170" s="9" t="s">
         <v>207</v>
       </c>
@@ -22367,7 +22580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:4">
+    <row r="171" spans="1:4">
       <c r="A171" s="9" t="s">
         <v>207</v>
       </c>
@@ -22382,7 +22595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:4">
+    <row r="172" spans="1:4">
       <c r="A172" s="9" t="s">
         <v>207</v>
       </c>
@@ -22397,7 +22610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:4">
+    <row r="173" spans="1:4">
       <c r="A173" s="9" t="s">
         <v>207</v>
       </c>
@@ -22412,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:4">
+    <row r="174" spans="1:4">
       <c r="A174" s="9" t="s">
         <v>215</v>
       </c>
@@ -22425,7 +22638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:4">
+    <row r="175" spans="1:4">
       <c r="A175" s="9" t="s">
         <v>215</v>
       </c>
@@ -22440,24 +22653,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="11">
+        <f>Orders!F176-Collection!H176</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B177" s="14"/>
+      <c r="C177" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D177" s="11">
+        <f>Orders!F177-Collection!H177</f>
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D175">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1000"/>
-        <filter val="1500"/>
-        <filter val="2000"/>
-        <filter val="2500"/>
-        <filter val="3000"/>
-        <filter val="3500"/>
-        <filter val="4500"/>
-        <filter val="6000"/>
-        <filter val="11000"/>
-        <filter val="15000"/>
-        <filter val="78500"/>
-        <filter val="0.1"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:D177">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
